--- a/En R/Resultados VaR/tabla_Parametrico.xlsx
+++ b/En R/Resultados VaR/tabla_Parametrico.xlsx
@@ -1,21 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyecto-portafolio2\En R\Resultados VaR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8271CD2-D81D-4663-B072-693538D02465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="29">
+  <si>
+    <t>Emisora</t>
+  </si>
+  <si>
+    <t>Horizonte</t>
+  </si>
+  <si>
+    <t>VaR_95</t>
+  </si>
+  <si>
+    <t>VaR_97</t>
+  </si>
+  <si>
+    <t>VaR_99</t>
+  </si>
+  <si>
+    <t>ES_95</t>
+  </si>
+  <si>
+    <t>ES_97</t>
+  </si>
+  <si>
+    <t>ES_99</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +161,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +213,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +247,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +282,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,116 +458,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="M141" sqref="M141"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Emisora</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Horizonte</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>VaR_95</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>VaR_97</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>VaR_99</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ES_95</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ES_97</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ES_99</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02811599475619216</v>
+        <v>2.8115994756192159E-2</v>
       </c>
       <c r="D2">
-        <v>0.03214899025530155</v>
+        <v>3.2148990255301553E-2</v>
       </c>
       <c r="E2">
-        <v>0.03976498793320336</v>
+        <v>3.9764987933203363E-2</v>
       </c>
       <c r="F2">
-        <v>0.03525859172459988</v>
+        <v>3.5258591724599879E-2</v>
       </c>
       <c r="G2">
-        <v>0.03876874144259261</v>
+        <v>3.8768741442592611E-2</v>
       </c>
       <c r="H2">
-        <v>0.04555733581124435</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+        <v>4.5557335811244347E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.07438792998808055</v>
+        <v>7.4387929988080553E-2</v>
       </c>
       <c r="D3">
-        <v>0.08505823311736684</v>
+        <v>8.5058233117366835E-2</v>
       </c>
       <c r="E3">
         <v>0.1052082689587404</v>
       </c>
       <c r="F3">
-        <v>0.09328546528165126</v>
+        <v>9.3285465281651256E-2</v>
       </c>
       <c r="G3">
         <v>0.1025724485000635</v>
       </c>
       <c r="H3">
-        <v>0.1205333809512096</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+        <v>0.12053338095120961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -468,32 +556,30 @@
         <v>0.1088927794527873</v>
       </c>
       <c r="D4">
-        <v>0.1245125038561675</v>
+        <v>0.12451250385616749</v>
       </c>
       <c r="E4">
-        <v>0.1540091360274355</v>
+        <v>0.15400913602743549</v>
       </c>
       <c r="F4">
-        <v>0.136555938560102</v>
+        <v>0.13655593856010201</v>
       </c>
       <c r="G4">
-        <v>0.1501506899605825</v>
+        <v>0.15015068996058251</v>
       </c>
       <c r="H4">
-        <v>0.1764428028945282</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+        <v>0.17644280289452821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.1539976455466341</v>
+        <v>0.15399764554663409</v>
       </c>
       <c r="D5">
         <v>0.1760872716384243</v>
@@ -502,147 +588,137 @@
         <v>0.2178018088993621</v>
       </c>
       <c r="F5">
-        <v>0.1931192603342833</v>
+        <v>0.19311926033428331</v>
       </c>
       <c r="G5">
-        <v>0.2123451421419335</v>
+        <v>0.21234514214193351</v>
       </c>
       <c r="H5">
         <v>0.2495278048365645</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.2177855589055746</v>
+        <v>0.21778555890557461</v>
       </c>
       <c r="D6">
-        <v>0.2490250077123349</v>
+        <v>0.24902500771233491</v>
       </c>
       <c r="E6">
-        <v>0.308018272054871</v>
+        <v>0.30801827205487098</v>
       </c>
       <c r="F6">
-        <v>0.273111877120204</v>
+        <v>0.27311187712020402</v>
       </c>
       <c r="G6">
-        <v>0.300301379921165</v>
+        <v>0.30030137992116501</v>
       </c>
       <c r="H6">
-        <v>0.3528856057890563</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+        <v>0.35288560578905631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
         <v>90</v>
       </c>
       <c r="C7">
-        <v>0.2667317463327533</v>
+        <v>0.26673174633275332</v>
       </c>
       <c r="D7">
-        <v>0.3049921010439331</v>
+        <v>0.30499210104393309</v>
       </c>
       <c r="E7">
-        <v>0.3772437989941024</v>
+        <v>0.37724379899410238</v>
       </c>
       <c r="F7">
-        <v>0.3344923708190997</v>
+        <v>0.33449237081909972</v>
       </c>
       <c r="G7">
         <v>0.3677925749302639</v>
       </c>
       <c r="H7">
-        <v>0.4321948358780607</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+        <v>0.43219483587806068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>180</v>
       </c>
       <c r="C8">
-        <v>0.3772156531792397</v>
+        <v>0.37721565317923972</v>
       </c>
       <c r="D8">
-        <v>0.4313239657129956</v>
+        <v>0.43132396571299558</v>
       </c>
       <c r="E8">
-        <v>0.5335032968586094</v>
+        <v>0.53350329685860942</v>
       </c>
       <c r="F8">
-        <v>0.4730436473227013</v>
+        <v>0.47304364732270132</v>
       </c>
       <c r="G8">
-        <v>0.520137247606502</v>
+        <v>0.52013724760650204</v>
       </c>
       <c r="H8">
-        <v>0.6112157984863674</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+        <v>0.61121579848636742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.02849787197619418</v>
+        <v>2.8497871976194179E-2</v>
       </c>
       <c r="D9">
-        <v>0.03258564444915194</v>
+        <v>3.2585644449151942E-2</v>
       </c>
       <c r="E9">
-        <v>0.0403050841729781</v>
+        <v>4.0305084172978102E-2</v>
       </c>
       <c r="F9">
-        <v>0.03573748116478272</v>
+        <v>3.5737481164782717E-2</v>
       </c>
       <c r="G9">
-        <v>0.03929530645775409</v>
+        <v>3.9295306457754087E-2</v>
       </c>
       <c r="H9">
-        <v>0.04617610491051178</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+        <v>4.617610491051178E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.0753982821435666</v>
+        <v>7.53982821435666E-2</v>
       </c>
       <c r="D10">
-        <v>0.08621351152322836</v>
+        <v>8.6213511523228356E-2</v>
       </c>
       <c r="E10">
         <v>0.1066372292932255</v>
       </c>
       <c r="F10">
-        <v>0.09455248764587</v>
+        <v>9.4552487645870001E-2</v>
       </c>
       <c r="G10">
         <v>0.1039656085792878</v>
@@ -651,11 +727,9 @@
         <v>0.1221704901068426</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -664,38 +738,36 @@
         <v>0.1103717835661511</v>
       </c>
       <c r="D11">
-        <v>0.1262036582770016</v>
+        <v>0.12620365827700161</v>
       </c>
       <c r="E11">
         <v>0.1561009197694323</v>
       </c>
       <c r="F11">
-        <v>0.1384106693866047</v>
+        <v>0.13841066938660471</v>
       </c>
       <c r="G11">
-        <v>0.1521900674949984</v>
+        <v>0.15219006749499839</v>
       </c>
       <c r="H11">
-        <v>0.1788392853111387</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+        <v>0.17883928531113871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12">
         <v>30</v>
       </c>
       <c r="C12">
-        <v>0.1560892732225588</v>
+        <v>0.15608927322255881</v>
       </c>
       <c r="D12">
-        <v>0.1784789251564352</v>
+        <v>0.17847892515643521</v>
       </c>
       <c r="E12">
-        <v>0.2207600378368456</v>
+        <v>0.22076003783684561</v>
       </c>
       <c r="F12">
         <v>0.195742245823675</v>
@@ -704,14 +776,12 @@
         <v>0.2152292575099034</v>
       </c>
       <c r="H12">
-        <v>0.2529169427721237</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+        <v>0.25291694277212368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13">
         <v>60</v>
@@ -720,116 +790,108 @@
         <v>0.2207435671323022</v>
       </c>
       <c r="D13">
-        <v>0.2524073165540033</v>
+        <v>0.25240731655400328</v>
       </c>
       <c r="E13">
-        <v>0.3122018395388647</v>
+        <v>0.31220183953886471</v>
       </c>
       <c r="F13">
-        <v>0.2768213387732095</v>
+        <v>0.27682133877320952</v>
       </c>
       <c r="G13">
-        <v>0.3043801349899967</v>
+        <v>0.30438013498999672</v>
       </c>
       <c r="H13">
-        <v>0.3576785706222773</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+        <v>0.35767857062227731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14">
         <v>90</v>
       </c>
       <c r="C14">
-        <v>0.2703545517379721</v>
+        <v>0.27035455173797213</v>
       </c>
       <c r="D14">
-        <v>0.3091345664512288</v>
+        <v>0.30913456645122878</v>
       </c>
       <c r="E14">
-        <v>0.3823676018142443</v>
+        <v>0.38236760181424428</v>
       </c>
       <c r="F14">
-        <v>0.3390355149542419</v>
+        <v>0.33903551495424189</v>
       </c>
       <c r="G14">
-        <v>0.3727880092824781</v>
+        <v>0.37278800928247813</v>
       </c>
       <c r="H14">
-        <v>0.4380649949763084</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+        <v>0.43806499497630841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15">
         <v>180</v>
       </c>
       <c r="C15">
-        <v>0.3823390737171387</v>
+        <v>0.38233907371713871</v>
       </c>
       <c r="D15">
-        <v>0.4371822964736546</v>
+        <v>0.43718229647365459</v>
       </c>
       <c r="E15">
         <v>0.5407494482977796</v>
       </c>
       <c r="F15">
-        <v>0.4794686233744352</v>
+        <v>0.47946862337443519</v>
       </c>
       <c r="G15">
-        <v>0.5272018586173478</v>
+        <v>0.52720185861734781</v>
       </c>
       <c r="H15">
-        <v>0.6195174570963972</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+        <v>0.61951745709639716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.0581397196695962</v>
+        <v>5.8139719669596197E-2</v>
       </c>
       <c r="D16">
-        <v>0.06647935800643019</v>
+        <v>6.6479358006430192E-2</v>
       </c>
       <c r="E16">
-        <v>0.08222811503377982</v>
+        <v>8.2228115033779817E-2</v>
       </c>
       <c r="F16">
-        <v>0.0729095540310383</v>
+        <v>7.2909554031038298E-2</v>
       </c>
       <c r="G16">
-        <v>0.08016802460524639</v>
+        <v>8.0168024605246385E-2</v>
       </c>
       <c r="H16">
-        <v>0.09420583393643099</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+        <v>9.4205833936430991E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>0.1538232395407619</v>
+        <v>0.15382323954076191</v>
       </c>
       <c r="D17">
         <v>0.175887848604245</v>
@@ -841,17 +903,15 @@
         <v>0.1929005481667542</v>
       </c>
       <c r="G17">
-        <v>0.212104656204789</v>
+        <v>0.21210465620478899</v>
       </c>
       <c r="H17">
-        <v>0.2492452086472454</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+        <v>0.24924520864724539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -860,231 +920,215 @@
         <v>0.2251741660335139</v>
       </c>
       <c r="D18">
-        <v>0.2574734464254648</v>
+        <v>0.25747344642546482</v>
       </c>
       <c r="E18">
-        <v>0.318468120115857</v>
+        <v>0.31846812011585701</v>
       </c>
       <c r="F18">
         <v>0.2823774885416212</v>
       </c>
       <c r="G18">
-        <v>0.3104894241944657</v>
+        <v>0.31048942419446568</v>
       </c>
       <c r="H18">
-        <v>0.3648576259513787</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+        <v>0.36485762595137872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
       </c>
       <c r="B19">
         <v>30</v>
       </c>
       <c r="C19">
-        <v>0.3184443595006464</v>
+        <v>0.31844435950064642</v>
       </c>
       <c r="D19">
-        <v>0.3641224398858349</v>
+        <v>0.36412243988583493</v>
       </c>
       <c r="E19">
-        <v>0.4503819346513088</v>
+        <v>0.45038193465130882</v>
       </c>
       <c r="F19">
-        <v>0.3993420740044139</v>
+        <v>0.39934207400441391</v>
       </c>
       <c r="G19">
-        <v>0.4390983546692264</v>
+        <v>0.43909835466922642</v>
       </c>
       <c r="H19">
-        <v>0.5159866029556895</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+        <v>0.51598660295568954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
       </c>
       <c r="B20">
         <v>60</v>
       </c>
       <c r="C20">
-        <v>0.4503483320670277</v>
+        <v>0.45034833206702768</v>
       </c>
       <c r="D20">
-        <v>0.5149468928509296</v>
+        <v>0.51494689285092965</v>
       </c>
       <c r="E20">
-        <v>0.6369362402317139</v>
+        <v>0.63693624023171391</v>
       </c>
       <c r="F20">
         <v>0.5647549770832424</v>
       </c>
       <c r="G20">
-        <v>0.6209788483889314</v>
+        <v>0.62097884838893136</v>
       </c>
       <c r="H20">
-        <v>0.7297152519027574</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+        <v>0.72971525190275743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
       </c>
       <c r="B21">
         <v>90</v>
       </c>
       <c r="C21">
-        <v>0.5515618100388485</v>
+        <v>0.55156181003884852</v>
       </c>
       <c r="D21">
-        <v>0.6306785660582103</v>
+        <v>0.63067856605821027</v>
       </c>
       <c r="E21">
         <v>0.7800843936272327</v>
       </c>
       <c r="F21">
-        <v>0.6916807617755755</v>
+        <v>0.69168076177557547</v>
       </c>
       <c r="G21">
-        <v>0.7605406598069988</v>
+        <v>0.76054065980699881</v>
       </c>
       <c r="H21">
-        <v>0.8937150123441238</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+        <v>0.89371501234412376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
       </c>
       <c r="B22">
         <v>180</v>
       </c>
       <c r="C22">
-        <v>0.7800261922439923</v>
+        <v>0.78002619224399228</v>
       </c>
       <c r="D22">
-        <v>0.8919141816175369</v>
+        <v>0.89191418161753688</v>
       </c>
       <c r="E22">
         <v>1.103205929263225</v>
       </c>
       <c r="F22">
-        <v>0.9781843141355727</v>
+        <v>0.97818431413557272</v>
       </c>
       <c r="G22">
-        <v>1.07556691583524</v>
+        <v>1.0755669158352399</v>
       </c>
       <c r="H22">
-        <v>1.263903891353498</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+        <v>1.2639038913534979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.03916286664905365</v>
+        <v>3.9162866649053649E-2</v>
       </c>
       <c r="D23">
-        <v>0.04478044007291659</v>
+        <v>4.4780440072916587E-2</v>
       </c>
       <c r="E23">
-        <v>0.05538878966344574</v>
+        <v>5.5388789663445737E-2</v>
       </c>
       <c r="F23">
-        <v>0.04911181474878543</v>
+        <v>4.9111814748785433E-2</v>
       </c>
       <c r="G23">
-        <v>0.05400111447002995</v>
+        <v>5.4001114470029948E-2</v>
       </c>
       <c r="H23">
-        <v>0.06345697112029029</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+        <v>6.3456971120290293E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
       </c>
       <c r="B24">
         <v>7</v>
       </c>
       <c r="C24">
-        <v>0.1036152057817814</v>
+        <v>0.10361520578178141</v>
       </c>
       <c r="D24">
         <v>0.1184779080329684</v>
       </c>
       <c r="E24">
-        <v>0.1465449628703424</v>
+        <v>0.14654496287034241</v>
       </c>
       <c r="F24">
-        <v>0.1299376482603603</v>
+        <v>0.12993764826036031</v>
       </c>
       <c r="G24">
-        <v>0.1428735194080308</v>
+        <v>0.14287351940803081</v>
       </c>
       <c r="H24">
         <v>0.1678913645376959</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
       </c>
       <c r="B25">
         <v>15</v>
       </c>
       <c r="C25">
-        <v>0.1516771303215267</v>
+        <v>0.15167713032152669</v>
       </c>
       <c r="D25">
-        <v>0.1734338986382452</v>
+        <v>0.17343389863824521</v>
       </c>
       <c r="E25">
         <v>0.2145198599331109</v>
       </c>
       <c r="F25">
-        <v>0.1902092406240697</v>
+        <v>0.19020924062406969</v>
       </c>
       <c r="G25">
-        <v>0.2091454170190664</v>
+        <v>0.20914541701906639</v>
       </c>
       <c r="H25">
-        <v>0.2457677923496493</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+        <v>0.24576779234964929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
       </c>
       <c r="B26">
         <v>30</v>
       </c>
       <c r="C26">
-        <v>0.2145038548025344</v>
+        <v>0.21450385480253439</v>
       </c>
       <c r="D26">
-        <v>0.245272571629447</v>
+        <v>0.24527257162944699</v>
       </c>
       <c r="E26">
         <v>0.3033768953157821</v>
@@ -1093,241 +1137,223 @@
         <v>0.2689964877792469</v>
       </c>
       <c r="G26">
-        <v>0.2957762852565404</v>
+        <v>0.29577628525654043</v>
       </c>
       <c r="H26">
-        <v>0.3475681451353687</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+        <v>0.34756814513536871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
       </c>
       <c r="B27">
         <v>60</v>
       </c>
       <c r="C27">
-        <v>0.3033542606430533</v>
+        <v>0.30335426064305332</v>
       </c>
       <c r="D27">
-        <v>0.3468677972764904</v>
+        <v>0.34686779727649042</v>
       </c>
       <c r="E27">
-        <v>0.4290397198662217</v>
+        <v>0.42903971986622169</v>
       </c>
       <c r="F27">
-        <v>0.3804184812481395</v>
+        <v>0.38041848124813948</v>
       </c>
       <c r="G27">
-        <v>0.4182908340381327</v>
+        <v>0.41829083403813272</v>
       </c>
       <c r="H27">
-        <v>0.4915355846992986</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+        <v>0.49153558469929859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
       </c>
       <c r="B28">
         <v>90</v>
       </c>
       <c r="C28">
-        <v>0.3715315749373669</v>
+        <v>0.37153157493736688</v>
       </c>
       <c r="D28">
-        <v>0.4248245557652791</v>
+        <v>0.42482455576527911</v>
       </c>
       <c r="E28">
         <v>0.5254641965294391</v>
       </c>
       <c r="F28">
-        <v>0.4659155838912363</v>
+        <v>0.46591558389123627</v>
       </c>
       <c r="G28">
-        <v>0.5122995537383134</v>
+        <v>0.51229955373831337</v>
       </c>
       <c r="H28">
-        <v>0.602005686466932</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+        <v>0.60200568646693198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
       </c>
       <c r="B29">
         <v>180</v>
       </c>
       <c r="C29">
-        <v>0.5254249921262601</v>
+        <v>0.52542499212626015</v>
       </c>
       <c r="D29">
-        <v>0.6007926483923829</v>
+        <v>0.60079264839238289</v>
       </c>
       <c r="E29">
-        <v>0.7431185932734142</v>
+        <v>0.74311859327341423</v>
       </c>
       <c r="F29">
-        <v>0.6589041376599658</v>
+        <v>0.65890413765996581</v>
       </c>
       <c r="G29">
-        <v>0.724500976894407</v>
+        <v>0.72450097689440696</v>
       </c>
       <c r="H29">
-        <v>0.8513646064272605</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
+        <v>0.85136460642726053</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0.04960918072828054</v>
+        <v>4.9609180728280543E-2</v>
       </c>
       <c r="D30">
-        <v>0.0567251872692761</v>
+        <v>5.6725187269276098E-2</v>
       </c>
       <c r="E30">
-        <v>0.07016321101716377</v>
+        <v>7.0163211017163774E-2</v>
       </c>
       <c r="F30">
-        <v>0.06221191404601135</v>
+        <v>6.2211914046011348E-2</v>
       </c>
       <c r="G30">
-        <v>0.06840538695185165</v>
+        <v>6.8405386951851652E-2</v>
       </c>
       <c r="H30">
-        <v>0.08038350146801194</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
+        <v>8.0383501468011945E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31">
-        <v>0.1312535549526885</v>
+        <v>0.13125355495268851</v>
       </c>
       <c r="D31">
-        <v>0.1500807385880717</v>
+        <v>0.15008073858807169</v>
       </c>
       <c r="E31">
-        <v>0.1856344075371626</v>
+        <v>0.18563440753716259</v>
       </c>
       <c r="F31">
-        <v>0.1645972531510722</v>
+        <v>0.16459725315107221</v>
       </c>
       <c r="G31">
-        <v>0.1809836422117422</v>
+        <v>0.18098364221174221</v>
       </c>
       <c r="H31">
-        <v>0.212674754396955</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
+        <v>0.21267475439695499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
       </c>
       <c r="B32">
         <v>15</v>
       </c>
       <c r="C32">
-        <v>0.1921355307796244</v>
+        <v>0.19213553077962439</v>
       </c>
       <c r="D32">
         <v>0.2196957056044033</v>
       </c>
       <c r="E32">
-        <v>0.2717409477859121</v>
+        <v>0.27174094778591212</v>
       </c>
       <c r="F32">
-        <v>0.2409457070358892</v>
+        <v>0.24094570703588919</v>
       </c>
       <c r="G32">
-        <v>0.2649329244553956</v>
+        <v>0.26493292445539562</v>
       </c>
       <c r="H32">
-        <v>0.3113239624954497</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
+        <v>0.31132396249544969</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
       </c>
       <c r="B33">
         <v>30</v>
       </c>
       <c r="C33">
-        <v>0.2717206734422982</v>
+        <v>0.27172067344229822</v>
       </c>
       <c r="D33">
-        <v>0.310696646460874</v>
+        <v>0.31069664646087403</v>
       </c>
       <c r="E33">
-        <v>0.3842997338109559</v>
+        <v>0.38429973381095589</v>
       </c>
       <c r="F33">
         <v>0.340748686685729</v>
       </c>
       <c r="G33">
-        <v>0.3746717348839871</v>
+        <v>0.37467173488398708</v>
       </c>
       <c r="H33">
         <v>0.4402785700527978</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
       </c>
       <c r="B34">
         <v>60</v>
       </c>
       <c r="C34">
-        <v>0.3842710615592489</v>
+        <v>0.38427106155924889</v>
       </c>
       <c r="D34">
-        <v>0.4393914112088066</v>
+        <v>0.43939141120880659</v>
       </c>
       <c r="E34">
-        <v>0.5434818955718241</v>
+        <v>0.54348189557182414</v>
       </c>
       <c r="F34">
-        <v>0.4818914140717785</v>
+        <v>0.48189141407177849</v>
       </c>
       <c r="G34">
-        <v>0.5298658489107911</v>
+        <v>0.52986584891079114</v>
       </c>
       <c r="H34">
-        <v>0.6226479249908995</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
+        <v>0.62264792499089949</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
       </c>
       <c r="B35">
         <v>90</v>
@@ -1336,125 +1362,117 @@
         <v>0.4706340118688917</v>
       </c>
       <c r="D35">
-        <v>0.5381423774114987</v>
+        <v>0.53814237741149873</v>
       </c>
       <c r="E35">
-        <v>0.6656266642957708</v>
+        <v>0.66562666429577078</v>
       </c>
       <c r="F35">
-        <v>0.5901940379520513</v>
+        <v>0.59019403795205128</v>
       </c>
       <c r="G35">
-        <v>0.6489504809790421</v>
+        <v>0.64895048097904207</v>
       </c>
       <c r="H35">
-        <v>0.7625848528152189</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
+        <v>0.76258485281521893</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
       </c>
       <c r="B36">
         <v>180</v>
       </c>
       <c r="C36">
-        <v>0.6655770024990468</v>
+        <v>0.66557700249904683</v>
       </c>
       <c r="D36">
-        <v>0.7610482486230422</v>
+        <v>0.76104824862304221</v>
       </c>
       <c r="E36">
-        <v>0.9413382561242423</v>
+        <v>0.94133825612424227</v>
       </c>
       <c r="F36">
         <v>0.8346604129035321</v>
       </c>
       <c r="G36">
-        <v>0.9177545715091046</v>
+        <v>0.91775457150910456</v>
       </c>
       <c r="H36">
-        <v>1.078457841311573</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
+        <v>1.0784578413115731</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>0.03389289716263146</v>
+        <v>3.3892897162631462E-2</v>
       </c>
       <c r="D37">
-        <v>0.03875453918860197</v>
+        <v>3.8754539188601972E-2</v>
       </c>
       <c r="E37">
-        <v>0.04793537124972323</v>
+        <v>4.7935371249723233E-2</v>
       </c>
       <c r="F37">
-        <v>0.04250306040329186</v>
+        <v>4.250306040329186E-2</v>
       </c>
       <c r="G37">
-        <v>0.04673442921840967</v>
+        <v>4.6734429218409673E-2</v>
       </c>
       <c r="H37">
-        <v>0.05491785409135889</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
+        <v>5.4917854091358888E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
       <c r="C38">
-        <v>0.08967217710380952</v>
+        <v>8.9672177103809522E-2</v>
       </c>
       <c r="D38">
         <v>0.1025348728679477</v>
       </c>
       <c r="E38">
-        <v>0.1268250713303231</v>
+        <v>0.12682507133032311</v>
       </c>
       <c r="F38">
         <v>0.1124525277862669</v>
       </c>
       <c r="G38">
-        <v>0.1236476773764627</v>
+        <v>0.12364767737646271</v>
       </c>
       <c r="H38">
-        <v>0.1452989844630667</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
+        <v>0.14529898446306669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
       </c>
       <c r="B39">
         <v>15</v>
       </c>
       <c r="C39">
-        <v>0.1312666262655922</v>
+        <v>0.13126662626559221</v>
       </c>
       <c r="D39">
         <v>0.1500956848673981</v>
       </c>
       <c r="E39">
-        <v>0.1856528945444479</v>
+        <v>0.18565289454444789</v>
       </c>
       <c r="F39">
-        <v>0.1646136451047973</v>
+        <v>0.16461364510479731</v>
       </c>
       <c r="G39">
         <v>0.18100166605741</v>
@@ -1463,67 +1481,61 @@
         <v>0.2126959343052818</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
       </c>
       <c r="B40">
         <v>30</v>
       </c>
       <c r="C40">
-        <v>0.1856390431517609</v>
+        <v>0.18563904315176091</v>
       </c>
       <c r="D40">
         <v>0.2122673531931526</v>
       </c>
       <c r="E40">
-        <v>0.2625528413585801</v>
+        <v>0.26255284135858009</v>
       </c>
       <c r="F40">
-        <v>0.2327988494588757</v>
+        <v>0.23279884945887569</v>
       </c>
       <c r="G40">
-        <v>0.2559750109505151</v>
+        <v>0.25597501095051511</v>
       </c>
       <c r="H40">
-        <v>0.3007974749561464</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
+        <v>0.30079747495614639</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
       </c>
       <c r="B41">
         <v>60</v>
       </c>
       <c r="C41">
-        <v>0.2625332525311845</v>
+        <v>0.26253325253118448</v>
       </c>
       <c r="D41">
-        <v>0.3001913697347963</v>
+        <v>0.30019136973479632</v>
       </c>
       <c r="E41">
-        <v>0.3713057890888957</v>
+        <v>0.37130578908889572</v>
       </c>
       <c r="F41">
-        <v>0.3292272902095946</v>
+        <v>0.32922729020959463</v>
       </c>
       <c r="G41">
-        <v>0.3620033321148199</v>
+        <v>0.36200333211481989</v>
       </c>
       <c r="H41">
-        <v>0.4253918686105637</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
+        <v>0.42539186861056372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
       </c>
       <c r="B42">
         <v>90</v>
@@ -1532,26 +1544,24 @@
         <v>0.3215362546073211</v>
       </c>
       <c r="D42">
-        <v>0.367657840518708</v>
+        <v>0.36765784051870798</v>
       </c>
       <c r="E42">
-        <v>0.4547548609046321</v>
+        <v>0.45475486090463207</v>
       </c>
       <c r="F42">
-        <v>0.4032194352063512</v>
+        <v>0.40321943520635117</v>
       </c>
       <c r="G42">
-        <v>0.4433617244342918</v>
+        <v>0.44336172443429178</v>
       </c>
       <c r="H42">
-        <v>0.5209965094124726</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
+        <v>0.52099650941247255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
       </c>
       <c r="B43">
         <v>180</v>
@@ -1563,79 +1573,73 @@
         <v>0.5199467043743613</v>
       </c>
       <c r="E43">
-        <v>0.6431204918464211</v>
+        <v>0.64312049184642106</v>
       </c>
       <c r="F43">
-        <v>0.5702383938812414</v>
+        <v>0.57023839388124142</v>
       </c>
       <c r="G43">
-        <v>0.6270081637320984</v>
+        <v>0.62700816373209844</v>
       </c>
       <c r="H43">
-        <v>0.7368003295601605</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
+        <v>0.73680032956016051</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>0.04489431937388103</v>
+        <v>4.4894319373881032E-2</v>
       </c>
       <c r="D44">
-        <v>0.0513340199621224</v>
+        <v>5.1334019962122397E-2</v>
       </c>
       <c r="E44">
-        <v>0.06349489262792619</v>
+        <v>6.3494892627926194E-2</v>
       </c>
       <c r="F44">
-        <v>0.05629928769313245</v>
+        <v>5.6299287693132451E-2</v>
       </c>
       <c r="G44">
-        <v>0.06190413233249909</v>
+        <v>6.1904132332499091E-2</v>
       </c>
       <c r="H44">
-        <v>0.07274384568174348</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
+        <v>7.2743845681743483E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
       </c>
       <c r="B45">
         <v>7</v>
       </c>
       <c r="C45">
-        <v>0.1187792043427982</v>
+        <v>0.11877920434279821</v>
       </c>
       <c r="D45">
-        <v>0.1358170506170012</v>
+        <v>0.13581705061700119</v>
       </c>
       <c r="E45">
-        <v>0.1679916954162411</v>
+        <v>0.16799169541624109</v>
       </c>
       <c r="F45">
-        <v>0.1489539142261078</v>
+        <v>0.14895391422610779</v>
       </c>
       <c r="G45">
         <v>0.1637829392790254</v>
       </c>
       <c r="H45">
-        <v>0.1924621250843531</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
+        <v>0.19246212508435309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>14</v>
       </c>
       <c r="B46">
         <v>15</v>
@@ -1644,222 +1648,206 @@
         <v>0.1738749512743582</v>
       </c>
       <c r="D46">
-        <v>0.1988158044071792</v>
+        <v>0.19881580440717919</v>
       </c>
       <c r="E46">
-        <v>0.2459146617171862</v>
+        <v>0.24591466171718621</v>
       </c>
       <c r="F46">
         <v>0.2180462036388422</v>
       </c>
       <c r="G46">
-        <v>0.2397536735851891</v>
+        <v>0.23975367358518909</v>
       </c>
       <c r="H46">
-        <v>0.2817357028644749</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
+        <v>0.28173570286447491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
       </c>
       <c r="B47">
         <v>30</v>
       </c>
       <c r="C47">
-        <v>0.2458963142491584</v>
+        <v>0.24589631424915839</v>
       </c>
       <c r="D47">
-        <v>0.2811680070067493</v>
+        <v>0.28116800700674932</v>
       </c>
       <c r="E47">
-        <v>0.3477758497868365</v>
+        <v>0.34777584978683651</v>
       </c>
       <c r="F47">
-        <v>0.3083638984100163</v>
+        <v>0.30836389841001632</v>
       </c>
       <c r="G47">
-        <v>0.3390628968129465</v>
+        <v>0.33906289681294649</v>
       </c>
       <c r="H47">
-        <v>0.3984344519956567</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
+        <v>0.39843445199565669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
       </c>
       <c r="B48">
         <v>60</v>
       </c>
       <c r="C48">
-        <v>0.3477499025487164</v>
+        <v>0.34774990254871641</v>
       </c>
       <c r="D48">
-        <v>0.3976316088143583</v>
+        <v>0.39763160881435827</v>
       </c>
       <c r="E48">
-        <v>0.4918293234343725</v>
+        <v>0.49182932343437252</v>
       </c>
       <c r="F48">
-        <v>0.4360924072776843</v>
+        <v>0.43609240727768428</v>
       </c>
       <c r="G48">
-        <v>0.4795073471703782</v>
+        <v>0.47950734717037818</v>
       </c>
       <c r="H48">
-        <v>0.5634714057289497</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
+        <v>0.56347140572894971</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
       </c>
       <c r="B49">
         <v>90</v>
       </c>
       <c r="C49">
-        <v>0.4259049096734653</v>
+        <v>0.42590490967346528</v>
       </c>
       <c r="D49">
-        <v>0.4869972735985719</v>
+        <v>0.48699727359857192</v>
       </c>
       <c r="E49">
-        <v>0.6023654414762428</v>
+        <v>0.60236544147624282</v>
       </c>
       <c r="F49">
-        <v>0.534101939266156</v>
+        <v>0.53410193926615601</v>
       </c>
       <c r="G49">
         <v>0.5872741642415068</v>
       </c>
       <c r="H49">
-        <v>0.6901087143423403</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
+        <v>0.69010871434234033</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
       </c>
       <c r="B50">
         <v>180</v>
       </c>
       <c r="C50">
-        <v>0.6023204995415027</v>
+        <v>0.60232049954150269</v>
       </c>
       <c r="D50">
-        <v>0.6887181491618213</v>
+        <v>0.68871814916182128</v>
       </c>
       <c r="E50">
-        <v>0.8518733768405594</v>
+        <v>0.85187337684055942</v>
       </c>
       <c r="F50">
-        <v>0.7553342061999689</v>
+        <v>0.75533420619996894</v>
       </c>
       <c r="G50">
-        <v>0.8305310879016635</v>
+        <v>0.83053108790166352</v>
       </c>
       <c r="H50">
         <v>0.9759611033347978</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0.03386840437683532</v>
+        <v>3.3868404376835318E-2</v>
       </c>
       <c r="D51">
-        <v>0.03872653312519524</v>
+        <v>3.8726533125195237E-2</v>
       </c>
       <c r="E51">
-        <v>0.04790073063536546</v>
+        <v>4.7900730635365457E-2</v>
       </c>
       <c r="F51">
-        <v>0.04247234546177645</v>
+        <v>4.2472345461776452E-2</v>
       </c>
       <c r="G51">
-        <v>0.04670065646777526</v>
+        <v>4.6700656467775263E-2</v>
       </c>
       <c r="H51">
-        <v>0.05487816756853999</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
+        <v>5.4878167568539991E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
       </c>
       <c r="B52">
         <v>7</v>
       </c>
       <c r="C52">
-        <v>0.08960737528367776</v>
+        <v>8.9607375283677765E-2</v>
       </c>
       <c r="D52">
         <v>0.1024607757889716</v>
       </c>
       <c r="E52">
-        <v>0.12673342087947</v>
+        <v>0.12673342087947001</v>
       </c>
       <c r="F52">
-        <v>0.1123712636894832</v>
+        <v>0.11237126368948321</v>
       </c>
       <c r="G52">
         <v>0.1235583230771935</v>
       </c>
       <c r="H52">
-        <v>0.145193983793287</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
+        <v>0.14519398379328699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>15</v>
       </c>
       <c r="B53">
         <v>15</v>
       </c>
       <c r="C53">
-        <v>0.1311717661141016</v>
+        <v>0.13117176611410161</v>
       </c>
       <c r="D53">
-        <v>0.1499872178502311</v>
+        <v>0.14998721785023111</v>
       </c>
       <c r="E53">
-        <v>0.1855187320219379</v>
+        <v>0.18551873202193789</v>
       </c>
       <c r="F53">
-        <v>0.1644946866478283</v>
+        <v>0.16449468664782829</v>
       </c>
       <c r="G53">
-        <v>0.1808708647566473</v>
+        <v>0.18087086475664729</v>
       </c>
       <c r="H53">
-        <v>0.2125422290633354</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
+        <v>0.21254222906333539</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>15</v>
       </c>
       <c r="B54">
         <v>30</v>
@@ -1871,247 +1859,229 @@
         <v>0.2121139576664047</v>
       </c>
       <c r="E54">
-        <v>0.2623631068996843</v>
+        <v>0.26236310689968428</v>
       </c>
       <c r="F54">
-        <v>0.2326306167956713</v>
+        <v>0.23263061679567129</v>
       </c>
       <c r="G54">
-        <v>0.2557900299770005</v>
+        <v>0.25579002997700051</v>
       </c>
       <c r="H54">
-        <v>0.3005801029183779</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
+        <v>0.30058010291837789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
       </c>
       <c r="B55">
         <v>60</v>
       </c>
       <c r="C55">
-        <v>0.2623435322282032</v>
+        <v>0.26234353222820322</v>
       </c>
       <c r="D55">
-        <v>0.2999744357004621</v>
+        <v>0.29997443570046212</v>
       </c>
       <c r="E55">
-        <v>0.3710374640438757</v>
+        <v>0.37103746404387572</v>
       </c>
       <c r="F55">
         <v>0.3289893732956567</v>
       </c>
       <c r="G55">
-        <v>0.3617417295132946</v>
+        <v>0.36174172951329459</v>
       </c>
       <c r="H55">
-        <v>0.4250844581266707</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
+        <v>0.42508445812667067</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
       </c>
       <c r="B56">
         <v>90</v>
       </c>
       <c r="C56">
-        <v>0.3213038956392459</v>
+        <v>0.32130389563924588</v>
       </c>
       <c r="D56">
-        <v>0.3673921516727269</v>
+        <v>0.36739215167272687</v>
       </c>
       <c r="E56">
-        <v>0.4544262311818779</v>
+        <v>0.45442623118187792</v>
       </c>
       <c r="F56">
-        <v>0.4029280476861885</v>
+        <v>0.40292804768618851</v>
       </c>
       <c r="G56">
-        <v>0.4430413279897309</v>
+        <v>0.44304132798973089</v>
       </c>
       <c r="H56">
-        <v>0.5206200099989127</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
+        <v>0.52062000999891267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
       </c>
       <c r="B57">
         <v>180</v>
       </c>
       <c r="C57">
-        <v>0.4543923268563311</v>
+        <v>0.45439232685633107</v>
       </c>
       <c r="D57">
-        <v>0.5195709636050037</v>
+        <v>0.51957096360500366</v>
       </c>
       <c r="E57">
-        <v>0.6426557392355032</v>
+        <v>0.64265573923550323</v>
       </c>
       <c r="F57">
-        <v>0.569826309698321</v>
+        <v>0.56982630969832104</v>
       </c>
       <c r="G57">
-        <v>0.6265550547348643</v>
+        <v>0.62655505473486428</v>
       </c>
       <c r="H57">
-        <v>0.7362678789832786</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
+        <v>0.73626787898327861</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>16</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>0.06339143542603658</v>
+        <v>6.3391435426036577E-2</v>
       </c>
       <c r="D58">
-        <v>0.07248438682157576</v>
+        <v>7.2484386821575764E-2</v>
       </c>
       <c r="E58">
-        <v>0.08965571684884535</v>
+        <v>8.9655716848845352E-2</v>
       </c>
       <c r="F58">
-        <v>0.07949541746271357</v>
+        <v>7.9495417462713575E-2</v>
       </c>
       <c r="G58">
-        <v>0.08740954005070599</v>
+        <v>8.7409540050705989E-2</v>
       </c>
       <c r="H58">
         <v>0.1027153738042553</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
       </c>
       <c r="B59">
         <v>7</v>
       </c>
       <c r="C59">
-        <v>0.1677179733887026</v>
+        <v>0.16771797338870259</v>
       </c>
       <c r="D59">
         <v>0.191775661464897</v>
       </c>
       <c r="E59">
-        <v>0.2372067303972683</v>
+        <v>0.23720673039726831</v>
       </c>
       <c r="F59">
-        <v>0.2103251049756014</v>
+        <v>0.21032510497560139</v>
       </c>
       <c r="G59">
-        <v>0.2312639051887082</v>
+        <v>0.23126390518870821</v>
       </c>
       <c r="H59">
-        <v>0.2717593349090981</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
+        <v>0.27175933490909809</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>16</v>
       </c>
       <c r="B60">
         <v>15</v>
       </c>
       <c r="C60">
-        <v>0.2455139736972226</v>
+        <v>0.24551397369722261</v>
       </c>
       <c r="D60">
-        <v>0.2807308230200193</v>
+        <v>0.28073082302001928</v>
       </c>
       <c r="E60">
-        <v>0.3472350982478657</v>
+        <v>0.34723509824786569</v>
       </c>
       <c r="F60">
-        <v>0.3078844279328959</v>
+        <v>0.30788442793289589</v>
       </c>
       <c r="G60">
-        <v>0.3385356929160345</v>
+        <v>0.33853569291603453</v>
       </c>
       <c r="H60">
-        <v>0.3978149321433505</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
+        <v>0.39781493214335051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
       </c>
       <c r="B61">
         <v>30</v>
       </c>
       <c r="C61">
-        <v>0.3472091913547234</v>
+        <v>0.34720919135472339</v>
       </c>
       <c r="D61">
-        <v>0.3970133372910724</v>
+        <v>0.39701333729107241</v>
       </c>
       <c r="E61">
-        <v>0.4910645852740859</v>
+        <v>0.49106458527408592</v>
       </c>
       <c r="F61">
         <v>0.4354143336261832</v>
       </c>
       <c r="G61">
-        <v>0.4787617682692293</v>
+        <v>0.47876176826922928</v>
       </c>
       <c r="H61">
-        <v>0.5625952723516588</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
+        <v>0.56259527235165885</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>16</v>
       </c>
       <c r="B62">
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.4910279473944451</v>
+        <v>0.49102794739444511</v>
       </c>
       <c r="D62">
-        <v>0.5614616460400386</v>
+        <v>0.56146164604003856</v>
       </c>
       <c r="E62">
         <v>0.6944701964957315</v>
       </c>
       <c r="F62">
-        <v>0.6157688558657919</v>
+        <v>0.61576885586579189</v>
       </c>
       <c r="G62">
-        <v>0.6770713858320691</v>
+        <v>0.67707138583206905</v>
       </c>
       <c r="H62">
-        <v>0.795629864286701</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
+        <v>0.79562986428670102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>16</v>
       </c>
       <c r="B63">
         <v>90</v>
@@ -2120,32 +2090,30 @@
         <v>0.6013839602812856</v>
       </c>
       <c r="D63">
-        <v>0.687647271470617</v>
+        <v>0.68764727147061699</v>
       </c>
       <c r="E63">
-        <v>0.8505488114924563</v>
+        <v>0.85054881149245631</v>
       </c>
       <c r="F63">
-        <v>0.7541597481842952</v>
+        <v>0.75415974818429521</v>
       </c>
       <c r="G63">
-        <v>0.8292397073638224</v>
+        <v>0.82923970736382235</v>
       </c>
       <c r="H63">
-        <v>0.9744435958111231</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
+        <v>0.97444359581112305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>16</v>
       </c>
       <c r="B64">
         <v>180</v>
       </c>
       <c r="C64">
-        <v>0.8504853528234368</v>
+        <v>0.85048535282343685</v>
       </c>
       <c r="D64">
         <v>0.9724800974426</v>
@@ -2157,101 +2125,93 @@
         <v>1.066542944078108</v>
       </c>
       <c r="G64">
-        <v>1.172722040612214</v>
+        <v>1.1727220406122141</v>
       </c>
       <c r="H64">
-        <v>1.378071348963697</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
+        <v>1.3780713489636971</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>17</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>0.02174797239154974</v>
+        <v>2.1747972391549741E-2</v>
       </c>
       <c r="D65">
-        <v>0.02486753033465111</v>
+        <v>2.4867530334651111E-2</v>
       </c>
       <c r="E65">
-        <v>0.03075857237920254</v>
+        <v>3.0758572379202539E-2</v>
       </c>
       <c r="F65">
-        <v>0.0272728347704164</v>
+        <v>2.72728347704164E-2</v>
       </c>
       <c r="G65">
-        <v>0.02998796684449318</v>
+        <v>2.9987966844493182E-2</v>
       </c>
       <c r="H65">
-        <v>0.03523900505911488</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
+        <v>3.5239005059114883E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>17</v>
       </c>
       <c r="B66">
         <v>7</v>
       </c>
       <c r="C66">
-        <v>0.05753972646793926</v>
+        <v>5.7539726467939263E-2</v>
       </c>
       <c r="D66">
-        <v>0.06579330098584166</v>
+        <v>6.5793300985841657E-2</v>
       </c>
       <c r="E66">
-        <v>0.08137953319875023</v>
+        <v>8.1379533198750229E-2</v>
       </c>
       <c r="F66">
-        <v>0.07215713835027714</v>
+        <v>7.2157138350277136E-2</v>
       </c>
       <c r="G66">
-        <v>0.07934070259497931</v>
+        <v>7.9340702594979315E-2</v>
       </c>
       <c r="H66">
-        <v>0.09323364383576493</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
+        <v>9.3233643835764934E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>17</v>
       </c>
       <c r="B67">
         <v>15</v>
       </c>
       <c r="C67">
-        <v>0.08422953488625086</v>
+        <v>8.4229534886250859E-2</v>
       </c>
       <c r="D67">
-        <v>0.09631153084741151</v>
+        <v>9.6311530847411508E-2</v>
       </c>
       <c r="E67">
-        <v>0.1191274385777669</v>
+        <v>0.11912743857776691</v>
       </c>
       <c r="F67">
-        <v>0.1056272348696893</v>
+        <v>0.10562723486968929</v>
       </c>
       <c r="G67">
-        <v>0.1161428961753423</v>
+        <v>0.11614289617534231</v>
       </c>
       <c r="H67">
-        <v>0.1364800797308708</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
+        <v>0.13648007973087081</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>17</v>
       </c>
       <c r="B68">
         <v>30</v>
@@ -2260,54 +2220,50 @@
         <v>0.1191185505885137</v>
       </c>
       <c r="D68">
-        <v>0.1362050731373241</v>
+        <v>0.13620507313732411</v>
       </c>
       <c r="E68">
         <v>0.1684716392874458</v>
       </c>
       <c r="F68">
-        <v>0.1493794681086829</v>
+        <v>0.14937946810868291</v>
       </c>
       <c r="G68">
-        <v>0.1642508589444593</v>
+        <v>0.16425085894445929</v>
       </c>
       <c r="H68">
         <v>0.1930119797491589</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>17</v>
       </c>
       <c r="B69">
         <v>60</v>
       </c>
       <c r="C69">
-        <v>0.1684590697725017</v>
+        <v>0.16845906977250169</v>
       </c>
       <c r="D69">
-        <v>0.192623061694823</v>
+        <v>0.19262306169482299</v>
       </c>
       <c r="E69">
-        <v>0.2382548771555338</v>
+        <v>0.23825487715553381</v>
       </c>
       <c r="F69">
-        <v>0.2112544697393786</v>
+        <v>0.21125446973937859</v>
       </c>
       <c r="G69">
-        <v>0.2322857923506846</v>
+        <v>0.23228579235068461</v>
       </c>
       <c r="H69">
-        <v>0.2729601594617417</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
+        <v>0.27296015946174168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>17</v>
       </c>
       <c r="B70">
         <v>90</v>
@@ -2319,23 +2275,21 @@
         <v>0.2359141069224801</v>
       </c>
       <c r="E70">
-        <v>0.291801438880273</v>
+        <v>0.29180143888027299</v>
       </c>
       <c r="F70">
-        <v>0.2587328283718536</v>
+        <v>0.25873282837185357</v>
       </c>
       <c r="G70">
-        <v>0.2844908328786325</v>
+        <v>0.28449083287863253</v>
       </c>
       <c r="H70">
-        <v>0.3343065553949984</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
+        <v>0.33430655539499837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>17</v>
       </c>
       <c r="B71">
         <v>180</v>
@@ -2344,7 +2298,7 @@
         <v>0.2917796678417634</v>
       </c>
       <c r="D71">
-        <v>0.3336329295649079</v>
+        <v>0.33363292956490792</v>
       </c>
       <c r="E71">
         <v>0.4126695523844659</v>
@@ -2353,45 +2307,41 @@
         <v>0.3659034749146256</v>
       </c>
       <c r="G71">
-        <v>0.4023307942277797</v>
+        <v>0.40233079422777968</v>
       </c>
       <c r="H71">
         <v>0.4727808646298392</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>18</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>0.04636896965611149</v>
+        <v>4.6368969656111488E-2</v>
       </c>
       <c r="D72">
-        <v>0.05302019603252319</v>
+        <v>5.3020196032523191E-2</v>
       </c>
       <c r="E72">
-        <v>0.06558051866346509</v>
+        <v>6.5580518663465093E-2</v>
       </c>
       <c r="F72">
-        <v>0.05814855863974477</v>
+        <v>5.8148558639744767E-2</v>
       </c>
       <c r="G72">
-        <v>0.06393750643168328</v>
+        <v>6.3937506431683278E-2</v>
       </c>
       <c r="H72">
-        <v>0.07513327343254089</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
+        <v>7.5133273432540892E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>18</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -2400,234 +2350,218 @@
         <v>0.1226807622603712</v>
       </c>
       <c r="D73">
-        <v>0.1402782531659499</v>
+        <v>0.14027825316594991</v>
       </c>
       <c r="E73">
         <v>0.1735097432341586</v>
       </c>
       <c r="F73">
-        <v>0.1538466252576209</v>
+        <v>0.15384662525762091</v>
       </c>
       <c r="G73">
         <v>0.1691627414678267</v>
       </c>
       <c r="H73">
-        <v>0.1987839566887195</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
+        <v>0.19878395668871951</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>18</v>
       </c>
       <c r="B74">
         <v>15</v>
       </c>
       <c r="C74">
-        <v>0.1795862472589169</v>
+        <v>0.17958624725891689</v>
       </c>
       <c r="D74">
-        <v>0.2053463362466149</v>
+        <v>0.20534633624661491</v>
       </c>
       <c r="E74">
-        <v>0.253992256619245</v>
+        <v>0.25399225661924502</v>
       </c>
       <c r="F74">
-        <v>0.2252083992176969</v>
+        <v>0.22520839921769689</v>
       </c>
       <c r="G74">
-        <v>0.2476288976079389</v>
+        <v>0.24762889760793891</v>
       </c>
       <c r="H74">
-        <v>0.2909899167502791</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
+        <v>0.29098991675027908</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>18</v>
       </c>
       <c r="B75">
         <v>30</v>
       </c>
       <c r="C75">
-        <v>0.2539733064892483</v>
+        <v>0.25397330648924832</v>
       </c>
       <c r="D75">
-        <v>0.2904035737035887</v>
+        <v>0.29040357370358871</v>
       </c>
       <c r="E75">
-        <v>0.3591992940486838</v>
+        <v>0.35919929404868378</v>
       </c>
       <c r="F75">
-        <v>0.3184927725340013</v>
+        <v>0.31849277253400132</v>
       </c>
       <c r="G75">
-        <v>0.3502001454326457</v>
+        <v>0.35020014543264572</v>
       </c>
       <c r="H75">
-        <v>0.4115218867820625</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
+        <v>0.41152188678206247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>18</v>
       </c>
       <c r="B76">
         <v>60</v>
       </c>
       <c r="C76">
-        <v>0.3591724945178338</v>
+        <v>0.35917249451783378</v>
       </c>
       <c r="D76">
-        <v>0.4106926724932298</v>
+        <v>0.41069267249322983</v>
       </c>
       <c r="E76">
-        <v>0.50798451323849</v>
+        <v>0.50798451323849003</v>
       </c>
       <c r="F76">
-        <v>0.4504167984353938</v>
+        <v>0.45041679843539378</v>
       </c>
       <c r="G76">
-        <v>0.4952577952158779</v>
+        <v>0.49525779521587793</v>
       </c>
       <c r="H76">
-        <v>0.5819798335005582</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
+        <v>0.58197983350055815</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>18</v>
       </c>
       <c r="B77">
         <v>90</v>
       </c>
       <c r="C77">
-        <v>0.4398946706056405</v>
+        <v>0.43989467060564053</v>
       </c>
       <c r="D77">
-        <v>0.5029937443541886</v>
+        <v>0.50299374435418864</v>
       </c>
       <c r="E77">
-        <v>0.6221514273351934</v>
+        <v>0.62215142733519335</v>
       </c>
       <c r="F77">
-        <v>0.5516456638723677</v>
+        <v>0.55164566387236769</v>
       </c>
       <c r="G77">
-        <v>0.6065644447073523</v>
+        <v>0.60656444470735227</v>
       </c>
       <c r="H77">
-        <v>0.7127768163331394</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
+        <v>0.71277681633313938</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>18</v>
       </c>
       <c r="B78">
         <v>180</v>
       </c>
       <c r="C78">
-        <v>0.6221050091861421</v>
+        <v>0.62210500918614209</v>
       </c>
       <c r="D78">
-        <v>0.7113405750545191</v>
+        <v>0.71134057505451909</v>
       </c>
       <c r="E78">
         <v>0.8798549863872096</v>
       </c>
       <c r="F78">
-        <v>0.7801447794726121</v>
+        <v>0.78014477947261207</v>
       </c>
       <c r="G78">
-        <v>0.857811664158443</v>
+        <v>0.85781166415844301</v>
       </c>
       <c r="H78">
-        <v>1.008018640603442</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
+        <v>1.0080186406034419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>19</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>0.02575936373389754</v>
+        <v>2.575936373389754E-2</v>
       </c>
       <c r="D79">
-        <v>0.02945432096018778</v>
+        <v>2.9454320960187779E-2</v>
       </c>
       <c r="E79">
-        <v>0.03643195970577706</v>
+        <v>3.6431959705777062E-2</v>
       </c>
       <c r="F79">
-        <v>0.03230328134767244</v>
+        <v>3.2303281347672443E-2</v>
       </c>
       <c r="G79">
-        <v>0.03551921676558252</v>
+        <v>3.551921676558252E-2</v>
       </c>
       <c r="H79">
-        <v>0.04173880362709579</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
+        <v>4.173880362709579E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>19</v>
       </c>
       <c r="B80">
         <v>7</v>
       </c>
       <c r="C80">
-        <v>0.06815287037114907</v>
+        <v>6.8152870371149074E-2</v>
       </c>
       <c r="D80">
-        <v>0.07792880829693406</v>
+        <v>7.7928808296934063E-2</v>
       </c>
       <c r="E80">
-        <v>0.096389905156212</v>
+        <v>9.6389905156212E-2</v>
       </c>
       <c r="F80">
-        <v>0.08546644897729269</v>
+        <v>8.5466448977292692E-2</v>
       </c>
       <c r="G80">
-        <v>0.09397501432552735</v>
+        <v>9.3975014325527351E-2</v>
       </c>
       <c r="H80">
         <v>0.1104304944186562</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>19</v>
       </c>
       <c r="B81">
         <v>15</v>
       </c>
       <c r="C81">
-        <v>0.09976558675028446</v>
+        <v>9.9765586750284463E-2</v>
       </c>
       <c r="D81">
         <v>0.1140760945526553</v>
       </c>
       <c r="E81">
-        <v>0.1411003732101742</v>
+        <v>0.14110037321017421</v>
       </c>
       <c r="F81">
         <v>0.125110070687388</v>
@@ -2636,42 +2570,38 @@
         <v>0.1375653350034324</v>
       </c>
       <c r="H81">
-        <v>0.1616536913383637</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
+        <v>0.16165369133836369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>19</v>
       </c>
       <c r="B82">
         <v>30</v>
       </c>
       <c r="C82">
-        <v>0.1410898458403619</v>
+        <v>0.14108984584036191</v>
       </c>
       <c r="D82">
-        <v>0.1613279600589207</v>
+        <v>0.16132796005892069</v>
       </c>
       <c r="E82">
-        <v>0.1995460614497337</v>
+        <v>0.19954606144973369</v>
       </c>
       <c r="F82">
-        <v>0.1769323587555608</v>
+        <v>0.17693235875556079</v>
       </c>
       <c r="G82">
-        <v>0.1945467624742523</v>
+        <v>0.19454676247425229</v>
       </c>
       <c r="H82">
-        <v>0.2286128426983881</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
+        <v>0.22861284269838811</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>19</v>
       </c>
       <c r="B83">
         <v>60</v>
@@ -2683,38 +2613,36 @@
         <v>0.2281521891053106</v>
       </c>
       <c r="E83">
-        <v>0.2822007464203485</v>
+        <v>0.28220074642034848</v>
       </c>
       <c r="F83">
-        <v>0.2502201413747761</v>
+        <v>0.25022014137477611</v>
       </c>
       <c r="G83">
-        <v>0.2751306700068648</v>
+        <v>0.27513067000686481</v>
       </c>
       <c r="H83">
-        <v>0.3233073826767274</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
+        <v>0.32330738267672737</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>19</v>
       </c>
       <c r="B84">
         <v>90</v>
       </c>
       <c r="C84">
-        <v>0.2443747814275671</v>
+        <v>0.24437478142756711</v>
       </c>
       <c r="D84">
-        <v>0.2794282235034932</v>
+        <v>0.27942822350349322</v>
       </c>
       <c r="E84">
-        <v>0.3456239168812001</v>
+        <v>0.34562391688120009</v>
       </c>
       <c r="F84">
-        <v>0.3064558348676353</v>
+        <v>0.30645583486763528</v>
       </c>
       <c r="G84">
         <v>0.3369648770534393</v>
@@ -2723,67 +2651,61 @@
         <v>0.3959690588163598</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>19</v>
       </c>
       <c r="B85">
         <v>180</v>
       </c>
       <c r="C85">
-        <v>0.3455981301968262</v>
+        <v>0.34559813019682623</v>
       </c>
       <c r="D85">
-        <v>0.3951711833884605</v>
+        <v>0.39517118338846052</v>
       </c>
       <c r="E85">
-        <v>0.4887860307339045</v>
+        <v>0.48878603073390448</v>
       </c>
       <c r="F85">
-        <v>0.4333939979381795</v>
+        <v>0.43339399793817951</v>
       </c>
       <c r="G85">
-        <v>0.4765402991723564</v>
+        <v>0.47654029917235641</v>
       </c>
       <c r="H85">
-        <v>0.5599848132582058</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
+        <v>0.55998481325820582</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>20</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>0.04175165579642368</v>
+        <v>4.1751655796423683E-2</v>
       </c>
       <c r="D86">
-        <v>0.04774056856182592</v>
+        <v>4.7740568561825923E-2</v>
       </c>
       <c r="E86">
-        <v>0.05905016355753872</v>
+        <v>5.9050163557538719E-2</v>
       </c>
       <c r="F86">
-        <v>0.05235826078065106</v>
+        <v>5.2358260780651061E-2</v>
       </c>
       <c r="G86">
-        <v>0.05757075865207244</v>
+        <v>5.7570758652072437E-2</v>
       </c>
       <c r="H86">
-        <v>0.06765167728501767</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
+        <v>6.765167728501767E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
       </c>
       <c r="B87">
         <v>7</v>
@@ -2798,7 +2720,7 @@
         <v>0.1562320476509366</v>
       </c>
       <c r="F87">
-        <v>0.1385269371054693</v>
+        <v>0.13852693710546929</v>
       </c>
       <c r="G87">
         <v>0.1523179101827038</v>
@@ -2807,11 +2729,9 @@
         <v>0.1789895138725541</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>20</v>
       </c>
       <c r="B88">
         <v>15</v>
@@ -2820,26 +2740,24 @@
         <v>0.1617034675761333</v>
       </c>
       <c r="D88">
-        <v>0.1848984269784252</v>
+        <v>0.18489842697842521</v>
       </c>
       <c r="E88">
-        <v>0.2287003000491716</v>
+        <v>0.22870030004917161</v>
       </c>
       <c r="F88">
-        <v>0.2027826720398465</v>
+        <v>0.20278267203984651</v>
       </c>
       <c r="G88">
-        <v>0.2229705894880031</v>
+        <v>0.22297058948800311</v>
       </c>
       <c r="H88">
-        <v>0.2620138194678721</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
+        <v>0.26201381946787211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>20</v>
       </c>
       <c r="B89">
         <v>30</v>
@@ -2848,194 +2766,180 @@
         <v>0.2286832369289257</v>
       </c>
       <c r="D89">
-        <v>0.2614858630943402</v>
+        <v>0.26148586309434019</v>
       </c>
       <c r="E89">
-        <v>0.3234310660483347</v>
+        <v>0.32343106604833471</v>
       </c>
       <c r="F89">
-        <v>0.2867780050130063</v>
+        <v>0.28677800501300632</v>
       </c>
       <c r="G89">
-        <v>0.3153280316642579</v>
+        <v>0.31532803166425788</v>
       </c>
       <c r="H89">
-        <v>0.3705434970206403</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
+        <v>0.37054349702064032</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>20</v>
       </c>
       <c r="B90">
         <v>60</v>
       </c>
       <c r="C90">
-        <v>0.3234069351522666</v>
+        <v>0.32340693515226659</v>
       </c>
       <c r="D90">
-        <v>0.3697968539568504</v>
+        <v>0.36979685395685041</v>
       </c>
       <c r="E90">
-        <v>0.4574006000983432</v>
+        <v>0.45740060009834321</v>
       </c>
       <c r="F90">
-        <v>0.405565344079693</v>
+        <v>0.40556534407969302</v>
       </c>
       <c r="G90">
-        <v>0.4459411789760062</v>
+        <v>0.44594117897600621</v>
       </c>
       <c r="H90">
-        <v>0.5240276389357441</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
+        <v>0.52402763893574411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>20</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
       <c r="C91">
-        <v>0.3960909852002107</v>
+        <v>0.39609098520021069</v>
       </c>
       <c r="D91">
-        <v>0.4529068003403969</v>
+        <v>0.45290680034039688</v>
       </c>
       <c r="E91">
-        <v>0.560199039141881</v>
+        <v>0.56019903914188096</v>
       </c>
       <c r="F91">
-        <v>0.4967140751757692</v>
+        <v>0.49671407517576921</v>
       </c>
       <c r="G91">
-        <v>0.5461641718931823</v>
+        <v>0.54616417189318234</v>
       </c>
       <c r="H91">
-        <v>0.6418001632539959</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
+        <v>0.64180016325399591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>20</v>
       </c>
       <c r="B92">
         <v>180</v>
       </c>
       <c r="C92">
-        <v>0.5601572432038588</v>
+        <v>0.56015724320385885</v>
       </c>
       <c r="D92">
-        <v>0.6405069395323928</v>
+        <v>0.64050693953239279</v>
       </c>
       <c r="E92">
-        <v>0.7922410787828243</v>
+        <v>0.79224107878282435</v>
       </c>
       <c r="F92">
-        <v>0.7024597817351819</v>
+        <v>0.70245978173518187</v>
       </c>
       <c r="G92">
-        <v>0.7723927791736088</v>
+        <v>0.77239277917360882</v>
       </c>
       <c r="H92">
-        <v>0.9076424952070676</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
+        <v>0.90764249520706763</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>21</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
-        <v>0.03558435222392992</v>
+        <v>3.5584352223929923E-2</v>
       </c>
       <c r="D93">
-        <v>0.04068861880251955</v>
+        <v>4.0688618802519547E-2</v>
       </c>
       <c r="E93">
-        <v>0.05032762842167605</v>
+        <v>5.0327628421676047E-2</v>
       </c>
       <c r="F93">
-        <v>0.04462421328953985</v>
+        <v>4.4624213289539853E-2</v>
       </c>
       <c r="G93">
-        <v>0.0490667523142803</v>
+        <v>4.9066752314280301E-2</v>
       </c>
       <c r="H93">
-        <v>0.05765857825585716</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
+        <v>5.7658578255857157E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>21</v>
       </c>
       <c r="B94">
         <v>7</v>
       </c>
       <c r="C94">
-        <v>0.09414734654984676</v>
+        <v>9.4147346549846758E-2</v>
       </c>
       <c r="D94">
-        <v>0.1076519665421734</v>
+        <v>0.10765196654217341</v>
       </c>
       <c r="E94">
-        <v>0.133154388879421</v>
+        <v>0.13315438887942099</v>
       </c>
       <c r="F94">
         <v>0.118064570816026</v>
       </c>
       <c r="G94">
-        <v>0.1298184242651886</v>
+        <v>0.12981842426518861</v>
       </c>
       <c r="H94">
-        <v>0.1525502590145544</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
+        <v>0.15255025901455441</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>21</v>
       </c>
       <c r="B95">
         <v>15</v>
       </c>
       <c r="C95">
-        <v>0.1378176035488594</v>
+        <v>0.13781760354885941</v>
       </c>
       <c r="D95">
         <v>0.1575863430023402</v>
       </c>
       <c r="E95">
-        <v>0.1949180667312664</v>
+        <v>0.19491806673126641</v>
       </c>
       <c r="F95">
         <v>0.1728288349079955</v>
       </c>
       <c r="G95">
-        <v>0.1900347145656918</v>
+        <v>0.19003471456569179</v>
       </c>
       <c r="H95">
-        <v>0.2233107133509319</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
+        <v>0.22331071335093189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>21</v>
       </c>
       <c r="B96">
         <v>30</v>
@@ -3044,172 +2948,160 @@
         <v>0.1949035240725554</v>
       </c>
       <c r="D96">
-        <v>0.222860743518688</v>
+        <v>0.22286074351868801</v>
       </c>
       <c r="E96">
-        <v>0.2756557735229009</v>
+        <v>0.27565577352290088</v>
       </c>
       <c r="F96">
         <v>0.2444168822960279</v>
       </c>
       <c r="G96">
-        <v>0.2687496706605014</v>
+        <v>0.26874967066050143</v>
       </c>
       <c r="H96">
-        <v>0.3158090394440984</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
+        <v>0.31580903944409838</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>21</v>
       </c>
       <c r="B97">
         <v>60</v>
       </c>
       <c r="C97">
-        <v>0.2756352070977189</v>
+        <v>0.27563520709771888</v>
       </c>
       <c r="D97">
-        <v>0.3151726860046803</v>
+        <v>0.31517268600468029</v>
       </c>
       <c r="E97">
-        <v>0.3898361334625329</v>
+        <v>0.38983613346253287</v>
       </c>
       <c r="F97">
-        <v>0.3456576698159911</v>
+        <v>0.34565766981599111</v>
       </c>
       <c r="G97">
         <v>0.3800694291313837</v>
       </c>
       <c r="H97">
-        <v>0.4466214267018638</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
+        <v>0.44662142670186378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>21</v>
       </c>
       <c r="B98">
         <v>90</v>
       </c>
       <c r="C98">
-        <v>0.3375828062678897</v>
+        <v>0.33758280626788972</v>
       </c>
       <c r="D98">
         <v>0.3860061307869439</v>
       </c>
       <c r="E98">
-        <v>0.4774498051413641</v>
+        <v>0.47744980514136409</v>
       </c>
       <c r="F98">
-        <v>0.4233424583643023</v>
+        <v>0.42334245836430229</v>
       </c>
       <c r="G98">
         <v>0.4654880841013912</v>
       </c>
       <c r="H98">
-        <v>0.5469973018067021</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
+        <v>0.54699730180670214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>21</v>
       </c>
       <c r="B99">
         <v>180</v>
       </c>
       <c r="C99">
-        <v>0.4774141830480187</v>
+        <v>0.47741418304801869</v>
       </c>
       <c r="D99">
-        <v>0.5458951053180588</v>
+        <v>0.54589510531805885</v>
       </c>
       <c r="E99">
-        <v>0.6752159897833087</v>
+        <v>0.67521598978330866</v>
       </c>
       <c r="F99">
-        <v>0.5986966461471637</v>
+        <v>0.59869664614716367</v>
       </c>
       <c r="G99">
-        <v>0.6582995616592553</v>
+        <v>0.65829956165925529</v>
       </c>
       <c r="H99">
-        <v>0.7735710027965274</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>P15</t>
-        </is>
+        <v>0.77357100279652735</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>22</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>0.02756450442922847</v>
+        <v>2.7564504429228469E-2</v>
       </c>
       <c r="D100">
-        <v>0.03151839342594542</v>
+        <v>3.1518393425945417E-2</v>
       </c>
       <c r="E100">
-        <v>0.03898500463945347</v>
+        <v>3.8985004639453473E-2</v>
       </c>
       <c r="F100">
-        <v>0.03456700060548444</v>
+        <v>3.4567000605484441E-2</v>
       </c>
       <c r="G100">
-        <v>0.03800829934977151</v>
+        <v>3.8008299349771513E-2</v>
       </c>
       <c r="H100">
-        <v>0.04466373662544267</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>P15</t>
-        </is>
+        <v>4.4663736625442672E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>22</v>
       </c>
       <c r="B101">
         <v>7</v>
       </c>
       <c r="C101">
-        <v>0.07292882373247693</v>
+        <v>7.292882373247693E-2</v>
       </c>
       <c r="D101">
-        <v>0.08338983072934467</v>
+        <v>8.3389830729344666E-2</v>
       </c>
       <c r="E101">
         <v>0.1031446271366932</v>
       </c>
       <c r="F101">
-        <v>0.09145568717153096</v>
+        <v>9.1455687171530964E-2</v>
       </c>
       <c r="G101">
-        <v>0.1005605078359934</v>
+        <v>0.10056050783599341</v>
       </c>
       <c r="H101">
-        <v>0.1181691397338085</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>P15</t>
-        </is>
+        <v>0.11816913973380851</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>22</v>
       </c>
       <c r="B102">
         <v>15</v>
       </c>
       <c r="C102">
-        <v>0.1067568666008624</v>
+        <v>0.10675686660086239</v>
       </c>
       <c r="D102">
         <v>0.1220702128378999</v>
@@ -3221,45 +3113,41 @@
         <v>0.1338774176733829</v>
       </c>
       <c r="G102">
-        <v>0.1472055103993312</v>
+        <v>0.14720551039933119</v>
       </c>
       <c r="H102">
-        <v>0.1729819081297337</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>P15</t>
-        </is>
+        <v>0.17298190812973371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>22</v>
       </c>
       <c r="B103">
         <v>30</v>
       </c>
       <c r="C103">
-        <v>0.1509770086233949</v>
+        <v>0.15097700862339489</v>
       </c>
       <c r="D103">
-        <v>0.1726333505571284</v>
+        <v>0.17263335055712839</v>
       </c>
       <c r="E103">
-        <v>0.2135296644547222</v>
+        <v>0.21352966445472221</v>
       </c>
       <c r="F103">
-        <v>0.1893312597691856</v>
+        <v>0.18933125976918561</v>
       </c>
       <c r="G103">
-        <v>0.2081800292627879</v>
+        <v>0.20818002926278789</v>
       </c>
       <c r="H103">
-        <v>0.2446333605222462</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>P15</t>
-        </is>
+        <v>0.24463336052224621</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>22</v>
       </c>
       <c r="B104">
         <v>60</v>
@@ -3268,110 +3156,102 @@
         <v>0.2135137332017249</v>
       </c>
       <c r="D104">
-        <v>0.2441404256757999</v>
+        <v>0.24414042567579991</v>
       </c>
       <c r="E104">
-        <v>0.3019765474408443</v>
+        <v>0.30197654744084429</v>
       </c>
       <c r="F104">
-        <v>0.2677548353467659</v>
+        <v>0.26775483534676592</v>
       </c>
       <c r="G104">
-        <v>0.2944110207986625</v>
+        <v>0.29441102079866249</v>
       </c>
       <c r="H104">
-        <v>0.3459638162594675</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>P15</t>
-        </is>
+        <v>0.34596381625946748</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>22</v>
       </c>
       <c r="B105">
         <v>90</v>
       </c>
       <c r="C105">
-        <v>0.2614998497104846</v>
+        <v>0.26149984971048462</v>
       </c>
       <c r="D105">
         <v>0.2990097342457953</v>
       </c>
       <c r="E105">
-        <v>0.369844227758713</v>
+        <v>0.36984422775871301</v>
       </c>
       <c r="F105">
         <v>0.3279313613812509</v>
       </c>
       <c r="G105">
-        <v>0.3605783878043243</v>
+        <v>0.36057838780432427</v>
       </c>
       <c r="H105">
-        <v>0.4237174096508448</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>P15</t>
-        </is>
+        <v>0.42371740965084481</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>22</v>
       </c>
       <c r="B106">
         <v>180</v>
       </c>
       <c r="C106">
-        <v>0.3698166340190934</v>
+        <v>0.36981663401909343</v>
       </c>
       <c r="D106">
-        <v>0.4228636214519786</v>
+        <v>0.42286362145197859</v>
       </c>
       <c r="E106">
-        <v>0.5230387228617758</v>
+        <v>0.52303872286177577</v>
       </c>
       <c r="F106">
-        <v>0.4637649787928376</v>
+        <v>0.46376497879283762</v>
       </c>
       <c r="G106">
-        <v>0.5099348463315009</v>
+        <v>0.50993484633150088</v>
       </c>
       <c r="H106">
-        <v>0.5992269073418213</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
+        <v>0.59922690734182127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>23</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>0.05018630857737091</v>
+        <v>5.0186308577370907E-2</v>
       </c>
       <c r="D107">
-        <v>0.05738509910086382</v>
+        <v>5.7385099100863819E-2</v>
       </c>
       <c r="E107">
-        <v>0.0709794539477092</v>
+        <v>7.0979453947709201E-2</v>
       </c>
       <c r="F107">
-        <v>0.06293565565218348</v>
+        <v>6.2935655652183481E-2</v>
       </c>
       <c r="G107">
-        <v>0.06920118025579572</v>
+        <v>6.9201180255795719E-2</v>
       </c>
       <c r="H107">
-        <v>0.08131864203319648</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
+        <v>8.1318642033196484E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>23</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -3383,219 +3263,203 @@
         <v>0.1518267011816819</v>
       </c>
       <c r="E108">
-        <v>0.1877939833408004</v>
+        <v>0.18779398334080041</v>
       </c>
       <c r="F108">
         <v>0.1665120934544741</v>
       </c>
       <c r="G108">
-        <v>0.1830891133889886</v>
+        <v>0.18308911338898859</v>
       </c>
       <c r="H108">
-        <v>0.2151489037733217</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
+        <v>0.21514890377332169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>23</v>
       </c>
       <c r="B109">
         <v>15</v>
       </c>
       <c r="C109">
-        <v>0.194370737327784</v>
+        <v>0.19437073732778401</v>
       </c>
       <c r="D109">
         <v>0.2222515331381078</v>
       </c>
       <c r="E109">
-        <v>0.274902243062374</v>
+        <v>0.27490224306237399</v>
       </c>
       <c r="F109">
         <v>0.2437487462235513</v>
       </c>
       <c r="G109">
-        <v>0.2680150186685943</v>
+        <v>0.26801501866859428</v>
       </c>
       <c r="H109">
-        <v>0.3149457463307724</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
+        <v>0.31494574633077238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>23</v>
       </c>
       <c r="B110">
         <v>30</v>
       </c>
       <c r="C110">
-        <v>0.2748817328574105</v>
+        <v>0.27488173285741052</v>
       </c>
       <c r="D110">
-        <v>0.3143111324221254</v>
+        <v>0.31431113242212538</v>
       </c>
       <c r="E110">
-        <v>0.3887704804655944</v>
+        <v>0.38877048046559443</v>
       </c>
       <c r="F110">
-        <v>0.344712782720784</v>
+        <v>0.34471278272078398</v>
       </c>
       <c r="G110">
-        <v>0.3790304743208044</v>
+        <v>0.37903047432080439</v>
       </c>
       <c r="H110">
-        <v>0.4454005458726948</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
+        <v>0.44540054587269479</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>23</v>
       </c>
       <c r="B111">
         <v>60</v>
       </c>
       <c r="C111">
-        <v>0.388741474655568</v>
+        <v>0.38874147465556802</v>
       </c>
       <c r="D111">
-        <v>0.4445030662762156</v>
+        <v>0.44450306627621561</v>
       </c>
       <c r="E111">
-        <v>0.5498044861247481</v>
+        <v>0.54980448612474808</v>
       </c>
       <c r="F111">
-        <v>0.4874974924471026</v>
+        <v>0.48749749244710261</v>
       </c>
       <c r="G111">
-        <v>0.5360300373371887</v>
+        <v>0.53603003733718868</v>
       </c>
       <c r="H111">
-        <v>0.6298914926615449</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
+        <v>0.62989149266154487</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>23</v>
       </c>
       <c r="B112">
         <v>90</v>
       </c>
       <c r="C112">
-        <v>0.4761091273816102</v>
+        <v>0.47610912738161021</v>
       </c>
       <c r="D112">
-        <v>0.5444028507396306</v>
+        <v>0.54440285073963057</v>
       </c>
       <c r="E112">
-        <v>0.6733702246493732</v>
+        <v>0.67337022464937324</v>
       </c>
       <c r="F112">
         <v>0.5970600536908488</v>
       </c>
       <c r="G112">
-        <v>0.6565000391405638</v>
+        <v>0.65650003914056376</v>
       </c>
       <c r="H112">
-        <v>0.7714563751704198</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
+        <v>0.77145637517041976</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>23</v>
       </c>
       <c r="B113">
         <v>180</v>
       </c>
       <c r="C113">
-        <v>0.6733199851126928</v>
+        <v>0.67331998511269275</v>
       </c>
       <c r="D113">
-        <v>0.7699018949105614</v>
+        <v>0.76990189491056138</v>
       </c>
       <c r="E113">
-        <v>0.9522893041973615</v>
+        <v>0.95228930419736146</v>
       </c>
       <c r="F113">
-        <v>0.8443704254808068</v>
+        <v>0.84437042548080676</v>
       </c>
       <c r="G113">
-        <v>0.9284312590510532</v>
+        <v>0.92843125905105317</v>
       </c>
       <c r="H113">
-        <v>1.091004068545194</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
+        <v>1.0910040685451941</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>24</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114">
-        <v>0.02650243079313148</v>
+        <v>2.6502430793131481E-2</v>
       </c>
       <c r="D114">
-        <v>0.03030397454184121</v>
+        <v>3.0303974541841212E-2</v>
       </c>
       <c r="E114">
-        <v>0.03748289362791728</v>
+        <v>3.7482893627917277E-2</v>
       </c>
       <c r="F114">
-        <v>0.03323511741794908</v>
+        <v>3.323511741794908E-2</v>
       </c>
       <c r="G114">
-        <v>0.03654382126361843</v>
+        <v>3.654382126361843E-2</v>
       </c>
       <c r="H114">
-        <v>0.04294282133450197</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
+        <v>4.2942821334501967E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>24</v>
       </c>
       <c r="B115">
         <v>7</v>
       </c>
       <c r="C115">
-        <v>0.07011884101732621</v>
+        <v>7.0118841017326211E-2</v>
       </c>
       <c r="D115">
-        <v>0.08017678037454436</v>
+        <v>8.0176780374544357E-2</v>
       </c>
       <c r="E115">
-        <v>0.09917041495855675</v>
+        <v>9.9170414958556746E-2</v>
       </c>
       <c r="F115">
-        <v>0.08793185548192439</v>
+        <v>8.7931855481924392E-2</v>
       </c>
       <c r="G115">
-        <v>0.09668586301952853</v>
+        <v>9.6685863019528528E-2</v>
       </c>
       <c r="H115">
         <v>0.1136160258465711</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>24</v>
       </c>
       <c r="B116">
         <v>15</v>
@@ -3607,10 +3471,10 @@
         <v>0.1173667887244445</v>
       </c>
       <c r="E116">
-        <v>0.1451706227885877</v>
+        <v>0.14517062278858769</v>
       </c>
       <c r="F116">
-        <v>0.1287190562689648</v>
+        <v>0.12871905626896479</v>
       </c>
       <c r="G116">
         <v>0.1415336111607747</v>
@@ -3619,20 +3483,18 @@
         <v>0.1663168318676867</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>24</v>
       </c>
       <c r="B117">
         <v>30</v>
       </c>
       <c r="C117">
-        <v>0.1451597917411764</v>
+        <v>0.14515979174117641</v>
       </c>
       <c r="D117">
-        <v>0.1659817043862871</v>
+        <v>0.16598170438628709</v>
       </c>
       <c r="E117">
         <v>0.2053022636057695</v>
@@ -3641,26 +3503,24 @@
         <v>0.1820362351114356</v>
       </c>
       <c r="G117">
-        <v>0.2001587524352076</v>
+        <v>0.20015875243520759</v>
       </c>
       <c r="H117">
-        <v>0.2352075192782083</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
+        <v>0.23520751927820829</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>24</v>
       </c>
       <c r="B118">
         <v>60</v>
       </c>
       <c r="C118">
-        <v>0.2052869461916257</v>
+        <v>0.20528694619162571</v>
       </c>
       <c r="D118">
-        <v>0.2347335774488891</v>
+        <v>0.23473357744888909</v>
       </c>
       <c r="E118">
         <v>0.2903412455771755</v>
@@ -3669,101 +3529,93 @@
         <v>0.2574381125379297</v>
       </c>
       <c r="G118">
-        <v>0.2830672223215493</v>
+        <v>0.28306722232154929</v>
       </c>
       <c r="H118">
         <v>0.3326336637353734</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>24</v>
       </c>
       <c r="B119">
         <v>90</v>
       </c>
       <c r="C119">
-        <v>0.2514241345118347</v>
+        <v>0.25142413451183471</v>
       </c>
       <c r="D119">
-        <v>0.2874887451239272</v>
+        <v>0.28748874512392719</v>
       </c>
       <c r="E119">
-        <v>0.3555939514740916</v>
+        <v>0.35559395147409162</v>
       </c>
       <c r="F119">
         <v>0.3152960080315601</v>
       </c>
       <c r="G119">
-        <v>0.3466851287973803</v>
+        <v>0.34668512879738028</v>
       </c>
       <c r="H119">
         <v>0.407391373712093</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>24</v>
       </c>
       <c r="B120">
         <v>180</v>
       </c>
       <c r="C120">
-        <v>0.355567420934554</v>
+        <v>0.35556742093455401</v>
       </c>
       <c r="D120">
-        <v>0.4065704823838799</v>
+        <v>0.40657048238387988</v>
       </c>
       <c r="E120">
-        <v>0.5028857888725006</v>
+        <v>0.50288578887250057</v>
       </c>
       <c r="F120">
-        <v>0.4458958907203286</v>
+        <v>0.44589589072032859</v>
       </c>
       <c r="G120">
-        <v>0.4902868110183184</v>
+        <v>0.49028681101831839</v>
       </c>
       <c r="H120">
-        <v>0.5761384058974479</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>P18</t>
-        </is>
+        <v>0.57613840589744791</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>25</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121">
-        <v>0.0390145540175995</v>
+        <v>3.9014554017599498E-2</v>
       </c>
       <c r="D121">
-        <v>0.04461085328131615</v>
+        <v>4.461085328131615E-2</v>
       </c>
       <c r="E121">
-        <v>0.05517902827846692</v>
+        <v>5.5179028278466921E-2</v>
       </c>
       <c r="F121">
-        <v>0.04892582472547703</v>
+        <v>4.8925824725477032E-2</v>
       </c>
       <c r="G121">
-        <v>0.05379660831218717</v>
+        <v>5.3796608312187168E-2</v>
       </c>
       <c r="H121">
-        <v>0.06321665494386484</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>P18</t>
-        </is>
+        <v>6.3216654943864845E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>25</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -3775,135 +3627,125 @@
         <v>0.1180292235567523</v>
       </c>
       <c r="E122">
-        <v>0.145989986411024</v>
+        <v>0.14598998641102401</v>
       </c>
       <c r="F122">
-        <v>0.1294455649123472</v>
+        <v>0.12944556491234721</v>
       </c>
       <c r="G122">
-        <v>0.1423324469727975</v>
+        <v>0.14233244697279751</v>
       </c>
       <c r="H122">
-        <v>0.1672555476988483</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>P18</t>
-        </is>
+        <v>0.16725554769884829</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>25</v>
       </c>
       <c r="B123">
         <v>15</v>
       </c>
       <c r="C123">
-        <v>0.1511027179698725</v>
+        <v>0.15110271796987251</v>
       </c>
       <c r="D123">
-        <v>0.17277709181864</v>
+        <v>0.17277709181864001</v>
       </c>
       <c r="E123">
         <v>0.2137074575824105</v>
       </c>
       <c r="F123">
-        <v>0.1894889043612356</v>
+        <v>0.18948890436123561</v>
       </c>
       <c r="G123">
-        <v>0.2083533680755444</v>
+        <v>0.20835336807554439</v>
       </c>
       <c r="H123">
-        <v>0.2448370518005293</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>P18</t>
-        </is>
+        <v>0.24483705180052931</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>25</v>
       </c>
       <c r="B124">
         <v>30</v>
       </c>
       <c r="C124">
-        <v>0.2136915130644305</v>
+        <v>0.21369151306443049</v>
       </c>
       <c r="D124">
-        <v>0.2443437065173021</v>
+        <v>0.24434370651730211</v>
       </c>
       <c r="E124">
-        <v>0.3022279848933179</v>
+        <v>0.30222798489331792</v>
       </c>
       <c r="F124">
         <v>0.2679777784668777</v>
       </c>
       <c r="G124">
-        <v>0.2946561588985483</v>
+        <v>0.29465615889854829</v>
       </c>
       <c r="H124">
-        <v>0.3462518792277526</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>P18</t>
-        </is>
+        <v>0.34625187922775258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>25</v>
       </c>
       <c r="B125">
         <v>60</v>
       </c>
       <c r="C125">
-        <v>0.3022054359397451</v>
+        <v>0.30220543593974508</v>
       </c>
       <c r="D125">
-        <v>0.3455541836372799</v>
+        <v>0.34555418363727991</v>
       </c>
       <c r="E125">
         <v>0.427414915164821</v>
       </c>
       <c r="F125">
-        <v>0.3789778087224712</v>
+        <v>0.37897780872247122</v>
       </c>
       <c r="G125">
-        <v>0.4167067361510888</v>
+        <v>0.41670673615108877</v>
       </c>
       <c r="H125">
-        <v>0.4896741036010586</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>P18</t>
-        </is>
+        <v>0.48967410360105862</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>25</v>
       </c>
       <c r="B126">
         <v>90</v>
       </c>
       <c r="C126">
-        <v>0.3701245577738622</v>
+        <v>0.37012455777386222</v>
       </c>
       <c r="D126">
         <v>0.4232157141976659</v>
       </c>
       <c r="E126">
-        <v>0.5234742253043856</v>
+        <v>0.52347422530438559</v>
       </c>
       <c r="F126">
-        <v>0.4641511276040692</v>
+        <v>0.46415112760406918</v>
       </c>
       <c r="G126">
-        <v>0.5103594379753741</v>
+        <v>0.51035943797537409</v>
       </c>
       <c r="H126">
-        <v>0.5997258470386702</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>P18</t>
-        </is>
+        <v>0.59972584703867016</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>25</v>
       </c>
       <c r="B127">
         <v>180</v>
@@ -3912,110 +3754,102 @@
         <v>0.5234351693711401</v>
       </c>
       <c r="D127">
-        <v>0.5985174028277548</v>
+        <v>0.59851740282775479</v>
       </c>
       <c r="E127">
         <v>0.7403043489782114</v>
       </c>
       <c r="F127">
-        <v>0.6564088196484398</v>
+        <v>0.65640881964843978</v>
       </c>
       <c r="G127">
-        <v>0.7217572388698844</v>
+        <v>0.72175723886988441</v>
       </c>
       <c r="H127">
-        <v>0.8481404265877797</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>P19</t>
-        </is>
+        <v>0.84814042658777966</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>26</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128">
-        <v>0.028328464219228</v>
+        <v>2.8328464219228001E-2</v>
       </c>
       <c r="D128">
-        <v>0.0323919366193168</v>
+        <v>3.2391936619316802E-2</v>
       </c>
       <c r="E128">
-        <v>0.04006548754942035</v>
+        <v>4.0065487549420353E-2</v>
       </c>
       <c r="F128">
-        <v>0.03552503700302902</v>
+        <v>3.5525037003029017E-2</v>
       </c>
       <c r="G128">
-        <v>0.03906171253425456</v>
+        <v>3.9061712534254563E-2</v>
       </c>
       <c r="H128">
-        <v>0.04590160755980226</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>P19</t>
-        </is>
+        <v>4.5901607559802257E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>26</v>
       </c>
       <c r="B129">
         <v>7</v>
       </c>
       <c r="C129">
-        <v>0.07495007134846884</v>
+        <v>7.4950071348468844E-2</v>
       </c>
       <c r="D129">
-        <v>0.08570100877847855</v>
+        <v>8.5701008778478555E-2</v>
       </c>
       <c r="E129">
         <v>0.1060033162123209</v>
       </c>
       <c r="F129">
-        <v>0.09399041322638214</v>
+        <v>9.3990413226382144E-2</v>
       </c>
       <c r="G129">
         <v>0.1033475771499322</v>
       </c>
       <c r="H129">
-        <v>0.1214442383813192</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>P19</t>
-        </is>
+        <v>0.12144423838131919</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>26</v>
       </c>
       <c r="B130">
         <v>15</v>
       </c>
       <c r="C130">
-        <v>0.1097156701447028</v>
+        <v>0.10971567014470281</v>
       </c>
       <c r="D130">
-        <v>0.1254534310780202</v>
+        <v>0.12545343107802021</v>
       </c>
       <c r="E130">
-        <v>0.1551729660365856</v>
+        <v>0.15517296603658559</v>
       </c>
       <c r="F130">
-        <v>0.1375878766861336</v>
+        <v>0.13758787668613359</v>
       </c>
       <c r="G130">
-        <v>0.1512853621195094</v>
+        <v>0.15128536211950941</v>
       </c>
       <c r="H130">
         <v>0.1777761616432626</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>P19</t>
-        </is>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>26</v>
       </c>
       <c r="B131">
         <v>30</v>
@@ -4024,26 +3858,24 @@
         <v>0.1551613887234915</v>
       </c>
       <c r="D131">
-        <v>0.1774179436767744</v>
+        <v>0.17741794367677441</v>
       </c>
       <c r="E131">
-        <v>0.2194477130825991</v>
+        <v>0.21944771308259911</v>
       </c>
       <c r="F131">
         <v>0.1945786412276472</v>
       </c>
       <c r="G131">
-        <v>0.2139498108979351</v>
+        <v>0.21394981089793511</v>
       </c>
       <c r="H131">
-        <v>0.2514134588625336</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>P19</t>
-        </is>
+        <v>0.25141345886253358</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>26</v>
       </c>
       <c r="B132">
         <v>60</v>
@@ -4055,122 +3887,114 @@
         <v>0.2509068621560403</v>
       </c>
       <c r="E132">
-        <v>0.3103459320731713</v>
+        <v>0.31034593207317129</v>
       </c>
       <c r="F132">
         <v>0.2751757533722673</v>
       </c>
       <c r="G132">
-        <v>0.3025707242390189</v>
+        <v>0.30257072423901887</v>
       </c>
       <c r="H132">
-        <v>0.3555523232865253</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>P19</t>
-        </is>
+        <v>0.35555232328652531</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>26</v>
       </c>
       <c r="B133">
         <v>90</v>
       </c>
       <c r="C133">
-        <v>0.2687474086420319</v>
+        <v>0.26874740864203189</v>
       </c>
       <c r="D133">
-        <v>0.3072968926225668</v>
+        <v>0.30729689262256682</v>
       </c>
       <c r="E133">
-        <v>0.380094588663859</v>
+        <v>0.38009458866385898</v>
       </c>
       <c r="F133">
-        <v>0.3370200926740012</v>
+        <v>0.33702009267400118</v>
       </c>
       <c r="G133">
-        <v>0.3705719427449771</v>
+        <v>0.37057194274497712</v>
       </c>
       <c r="H133">
-        <v>0.435460884456536</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>P19</t>
-        </is>
+        <v>0.43546088445653602</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>26</v>
       </c>
       <c r="B134">
         <v>180</v>
       </c>
       <c r="C134">
-        <v>0.3800662301541859</v>
+        <v>0.38006623015418589</v>
       </c>
       <c r="D134">
-        <v>0.4345834332219426</v>
+        <v>0.43458343322194259</v>
       </c>
       <c r="E134">
-        <v>0.5375349222730523</v>
+        <v>0.53753492227305233</v>
       </c>
       <c r="F134">
-        <v>0.4766183858518098</v>
+        <v>0.47661838585180982</v>
       </c>
       <c r="G134">
-        <v>0.5240678672648927</v>
+        <v>0.52406786726489274</v>
       </c>
       <c r="H134">
-        <v>0.6158346886814166</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>P20</t>
-        </is>
+        <v>0.61583468868141655</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>27</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135">
-        <v>0.02966174679957742</v>
+        <v>2.9661746799577421E-2</v>
       </c>
       <c r="D135">
-        <v>0.03391646701757976</v>
+        <v>3.3916467017579763E-2</v>
       </c>
       <c r="E135">
-        <v>0.04195117454640872</v>
+        <v>4.1951174546408718E-2</v>
       </c>
       <c r="F135">
-        <v>0.03719702714820103</v>
+        <v>3.7197027148201028E-2</v>
       </c>
       <c r="G135">
-        <v>0.04090015673925981</v>
+        <v>4.0900156739259813E-2</v>
       </c>
       <c r="H135">
-        <v>0.04806197224797974</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>P20</t>
-        </is>
+        <v>4.8061972247979742E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>27</v>
       </c>
       <c r="B136">
         <v>7</v>
       </c>
       <c r="C136">
-        <v>0.07847760548344788</v>
+        <v>7.8477605483447885E-2</v>
       </c>
       <c r="D136">
-        <v>0.08973453707844059</v>
+        <v>8.973453707844059E-2</v>
       </c>
       <c r="E136">
         <v>0.1109923750568604</v>
       </c>
       <c r="F136">
-        <v>0.09841408334505805</v>
+        <v>9.8414083345058051E-2</v>
       </c>
       <c r="G136">
         <v>0.1082116433156439</v>
@@ -4179,11 +4003,9 @@
         <v>0.1271600260874424</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>P20</t>
-        </is>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>27</v>
       </c>
       <c r="B137">
         <v>15</v>
@@ -4192,38 +4014,36 @@
         <v>0.1148794513741845</v>
       </c>
       <c r="D137">
-        <v>0.1313579119212795</v>
+        <v>0.13135791192127949</v>
       </c>
       <c r="E137">
-        <v>0.1624762003720815</v>
+        <v>0.16247620037208149</v>
       </c>
       <c r="F137">
-        <v>0.1440634666734077</v>
+        <v>0.14406346667340769</v>
       </c>
       <c r="G137">
         <v>0.1584056259084263</v>
       </c>
       <c r="H137">
-        <v>0.1861432181023086</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>P20</t>
-        </is>
+        <v>0.18614321810230861</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>27</v>
       </c>
       <c r="B138">
         <v>30</v>
       </c>
       <c r="C138">
-        <v>0.1624640781713522</v>
+        <v>0.16246407817135219</v>
       </c>
       <c r="D138">
         <v>0.185768140564084</v>
       </c>
       <c r="E138">
-        <v>0.2297760461290461</v>
+        <v>0.22977604612904609</v>
       </c>
       <c r="F138">
         <v>0.2037365084120176</v>
@@ -4232,117 +4052,117 @@
         <v>0.2240193845158954</v>
       </c>
       <c r="H138">
-        <v>0.2632462635840578</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>P20</t>
-        </is>
+        <v>0.26324626358405778</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>27</v>
       </c>
       <c r="B139">
         <v>60</v>
       </c>
       <c r="C139">
-        <v>0.229758902748369</v>
+        <v>0.22975890274836899</v>
       </c>
       <c r="D139">
-        <v>0.2627158238425591</v>
+        <v>0.26271582384255909</v>
       </c>
       <c r="E139">
-        <v>0.324952400744163</v>
+        <v>0.32495240074416298</v>
       </c>
       <c r="F139">
-        <v>0.2881269333468155</v>
+        <v>0.28812693334681549</v>
       </c>
       <c r="G139">
-        <v>0.3168112518168525</v>
+        <v>0.31681125181685249</v>
       </c>
       <c r="H139">
-        <v>0.3722864362046172</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>P20</t>
-        </is>
+        <v>0.37228643620461721</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>27</v>
       </c>
       <c r="B140">
         <v>90</v>
       </c>
       <c r="C140">
-        <v>0.2813960377976238</v>
+        <v>0.28139603779762379</v>
       </c>
       <c r="D140">
-        <v>0.3217598578845904</v>
+        <v>0.32175985788459038</v>
       </c>
       <c r="E140">
-        <v>0.397983786257798</v>
+        <v>0.39798378625779801</v>
       </c>
       <c r="F140">
-        <v>0.3528819839262985</v>
+        <v>0.35288198392629849</v>
       </c>
       <c r="G140">
-        <v>0.3880129558618394</v>
+        <v>0.38801295586183943</v>
       </c>
       <c r="H140">
-        <v>0.4559559034302568</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>P20</t>
-        </is>
+        <v>0.45595590343025683</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>27</v>
       </c>
       <c r="B141">
         <v>180</v>
       </c>
       <c r="C141">
-        <v>0.3979540930514517</v>
+        <v>0.39795409305145168</v>
       </c>
       <c r="D141">
-        <v>0.4550371548476274</v>
+        <v>0.45503715484762741</v>
       </c>
       <c r="E141">
-        <v>0.562834068130373</v>
+        <v>0.56283406813037296</v>
       </c>
       <c r="F141">
-        <v>0.4990504875856959</v>
+        <v>0.49905048758569592</v>
       </c>
       <c r="G141">
-        <v>0.5487331845562864</v>
+        <v>0.54873318455628639</v>
       </c>
       <c r="H141">
-        <v>0.6448190224751464</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>0.64481902247514644</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>28</v>
+      </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142">
-        <v>0.4871194022011612</v>
+        <v>0.48711940220116118</v>
       </c>
       <c r="D142">
-        <v>0.5569924539513035</v>
+        <v>0.55699245395130348</v>
       </c>
       <c r="E142">
-        <v>0.688942266440435</v>
+        <v>0.68894226644043499</v>
       </c>
       <c r="F142">
-        <v>0.6108673825086455</v>
+        <v>0.61086738250864547</v>
       </c>
       <c r="G142">
-        <v>0.6716819489891226</v>
+        <v>0.67168194898912259</v>
       </c>
       <c r="H142">
-        <v>0.7892967109535918</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>0.78929671095359177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>28</v>
+      </c>
       <c r="B143">
         <v>7</v>
       </c>
@@ -4353,7 +4173,7 @@
         <v>1.473663515294745</v>
       </c>
       <c r="E143">
-        <v>1.822769904682591</v>
+        <v>1.8227699046825909</v>
       </c>
       <c r="F143">
         <v>1.616203178158844</v>
@@ -4362,122 +4182,137 @@
         <v>1.777103397156391</v>
       </c>
       <c r="H143">
-        <v>2.088282807824435</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>2.0882828078244349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>28</v>
+      </c>
       <c r="B144">
         <v>15</v>
       </c>
       <c r="C144">
-        <v>1.88660533233961</v>
+        <v>1.8866053323396099</v>
       </c>
       <c r="D144">
-        <v>2.1572224981166</v>
+        <v>2.1572224981165999</v>
       </c>
       <c r="E144">
-        <v>2.668261924422198</v>
+        <v>2.6682619244221981</v>
       </c>
       <c r="F144">
-        <v>2.3658791991973</v>
+        <v>2.3658791991973001</v>
       </c>
       <c r="G144">
         <v>2.601413002383012</v>
       </c>
       <c r="H144">
-        <v>3.05693301673955</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>3.0569330167395501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>28</v>
+      </c>
       <c r="B145">
         <v>30</v>
       </c>
       <c r="C145">
-        <v>2.668062847840076</v>
+        <v>2.6680628478400759</v>
       </c>
       <c r="D145">
-        <v>3.050773313892864</v>
+        <v>3.0507733138928641</v>
       </c>
       <c r="E145">
-        <v>3.773492201481606</v>
+        <v>3.7734922014816061</v>
       </c>
       <c r="F145">
-        <v>3.345858450441219</v>
+        <v>3.3458584504412192</v>
       </c>
       <c r="G145">
-        <v>3.678953549303768</v>
+        <v>3.6789535493037682</v>
       </c>
       <c r="H145">
-        <v>4.323156131539172</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>4.3231561315391724</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>28</v>
+      </c>
       <c r="B146">
         <v>60</v>
       </c>
       <c r="C146">
-        <v>3.77321066467922</v>
+        <v>3.7732106646792198</v>
       </c>
       <c r="D146">
-        <v>4.3144449962332</v>
+        <v>4.3144449962331999</v>
       </c>
       <c r="E146">
-        <v>5.336523848844395</v>
+        <v>5.3365238488443953</v>
       </c>
       <c r="F146">
-        <v>4.7317583983946</v>
+        <v>4.7317583983946001</v>
       </c>
       <c r="G146">
-        <v>5.202826004766023</v>
+        <v>5.2028260047660231</v>
       </c>
       <c r="H146">
-        <v>6.1138660334791</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>6.1138660334791002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>28</v>
+      </c>
       <c r="B147">
         <v>90</v>
       </c>
       <c r="C147">
-        <v>4.621220410245923</v>
+        <v>4.6212204102459227</v>
       </c>
       <c r="D147">
-        <v>5.284094382037715</v>
+        <v>5.2840943820377149</v>
       </c>
       <c r="E147">
-        <v>6.535880214931077</v>
+        <v>6.5358802149310771</v>
       </c>
       <c r="F147">
         <v>5.795196831097865</v>
       </c>
       <c r="G147">
-        <v>6.372134466079978</v>
+        <v>6.3721344660799781</v>
       </c>
       <c r="H147">
-        <v>7.487926068878766</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>7.4879260688787657</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>28</v>
+      </c>
       <c r="B148">
         <v>180</v>
       </c>
       <c r="C148">
-        <v>6.535392578885142</v>
+        <v>6.5353925788851424</v>
       </c>
       <c r="D148">
-        <v>7.472837939937216</v>
+        <v>7.4728379399372162</v>
       </c>
       <c r="E148">
-        <v>9.243130442001508</v>
+        <v>9.2431304420015081</v>
       </c>
       <c r="F148">
-        <v>8.195645955160185</v>
+        <v>8.1956459551601846</v>
       </c>
       <c r="G148">
-        <v>9.011558983195346</v>
+        <v>9.0115589831953464</v>
       </c>
       <c r="H148">
-        <v>10.58952660065541</v>
+        <v>10.589526600655409</v>
       </c>
     </row>
   </sheetData>

--- a/En R/Resultados VaR/tabla_Parametrico.xlsx
+++ b/En R/Resultados VaR/tabla_Parametrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyecto-portafolio2\En R\Resultados VaR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8271CD2-D81D-4663-B072-693538D02465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28C2872-30BC-47F1-BA4B-A2AE1AD4695C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="M141" sqref="M141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,25 +471,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
